--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_16_34.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_16_34.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1090272.977709395</v>
+        <v>1087102.690217923</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>31965533.67541051</v>
+        <v>31965533.67541049</v>
       </c>
     </row>
     <row r="8">
@@ -1369,25 +1369,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>369.9359394327274</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>395.561099664736</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>267.5715797715652</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>41.27936201577354</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>256.4842593842947</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>400.806900043077</v>
+        <v>279.1547560250189</v>
       </c>
       <c r="X11" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="12">
@@ -1463,7 +1463,7 @@
         <v>82.55</v>
       </c>
       <c r="G12" t="n">
-        <v>83.55597978948958</v>
+        <v>83.55597978948957</v>
       </c>
       <c r="H12" t="n">
         <v>31.89934644498295</v>
@@ -1499,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>44.70587412348771</v>
+        <v>44.7058741234877</v>
       </c>
       <c r="T12" t="n">
         <v>124.9458788810276</v>
@@ -1527,13 +1527,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C13" t="n">
-        <v>111.3254181196577</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D13" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>168.0604237117701</v>
@@ -1542,13 +1542,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
-        <v>163.1177378005102</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>131.2337281429463</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>63.18515342099343</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,7 +1578,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>73.68116750550392</v>
       </c>
       <c r="T13" t="n">
         <v>239.9271657823968</v>
@@ -1587,7 +1587,7 @@
         <v>275.6040730435755</v>
       </c>
       <c r="V13" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>269.3061403695714</v>
@@ -1596,7 +1596,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="14">
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -1615,7 +1615,7 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E14" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>423.5887552948843</v>
@@ -1624,7 +1624,7 @@
         <v>395.561099664736</v>
       </c>
       <c r="H14" t="n">
-        <v>143.813234133692</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>41.27936201577354</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -1669,13 +1669,13 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>95.79015598774288</v>
       </c>
     </row>
     <row r="15">
@@ -1703,7 +1703,7 @@
         <v>83.55597978948958</v>
       </c>
       <c r="H15" t="n">
-        <v>31.89934644498296</v>
+        <v>31.89934644498295</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1736,7 +1736,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>44.70587412348772</v>
+        <v>44.7058741234877</v>
       </c>
       <c r="T15" t="n">
         <v>124.9458788810276</v>
@@ -1767,25 +1767,25 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D16" t="n">
-        <v>28.08514513035075</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
-        <v>163.1177378005102</v>
+        <v>152.0745197329399</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>63.18515342099344</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1815,7 +1815,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>143.3999911908438</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>239.9271657823968</v>
@@ -1830,7 +1830,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y16" t="n">
         <v>225.1454739790328</v>
@@ -1846,19 +1846,19 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>131.4183902275888</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E17" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>287.203740227413</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1897,16 +1897,16 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>209.8874518549281</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>256.4842593842947</v>
       </c>
       <c r="V17" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X17" t="n">
         <v>414.9510387864824</v>
@@ -2007,19 +2007,19 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E19" t="n">
-        <v>57.97571036416785</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F19" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
-        <v>163.1177378005102</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>131.2337281429463</v>
       </c>
       <c r="I19" t="n">
         <v>63.18515342099344</v>
@@ -2052,13 +2052,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>143.3999911908438</v>
+        <v>90.44864134816726</v>
       </c>
       <c r="T19" t="n">
-        <v>239.9271657823968</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>275.6040730435755</v>
       </c>
       <c r="V19" t="n">
         <v>284.0859530482738</v>
@@ -2070,7 +2070,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y19" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2080,16 +2080,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>105.0343383823171</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -2098,7 +2098,7 @@
         <v>395.561099664736</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>267.5715797715652</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>41.27936201577355</v>
       </c>
       <c r="T20" t="n">
         <v>209.8874518549281</v>
@@ -2140,10 +2140,10 @@
         <v>256.4842593842947</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>290.7798777868253</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -2244,22 +2244,22 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E22" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
-        <v>15.55408832818727</v>
+        <v>158.1199519519872</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>63.18515342099344</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2295,13 +2295,13 @@
         <v>239.9271657823968</v>
       </c>
       <c r="U22" t="n">
-        <v>275.6040730435755</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W22" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>242.9378371199217</v>
@@ -2335,7 +2335,7 @@
         <v>395.561099664736</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>267.5715797715652</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,19 +2368,19 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>41.27936201577356</v>
+        <v>41.27936201577355</v>
       </c>
       <c r="T23" t="n">
         <v>209.8874518549281</v>
       </c>
       <c r="U23" t="n">
-        <v>83.4613890861614</v>
+        <v>256.4842593842947</v>
       </c>
       <c r="V23" t="n">
-        <v>358.9907805655117</v>
+        <v>319.2032305388913</v>
       </c>
       <c r="W23" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>414.9510387864824</v>
@@ -2569,10 +2569,10 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G26" t="n">
-        <v>395.561099664736</v>
+        <v>222.5382293666037</v>
       </c>
       <c r="H26" t="n">
-        <v>267.5715797715652</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>41.27936201577356</v>
+        <v>41.27936201577355</v>
       </c>
       <c r="T26" t="n">
         <v>209.8874518549281</v>
@@ -2614,13 +2614,13 @@
         <v>256.4842593842947</v>
       </c>
       <c r="V26" t="n">
-        <v>333.3473692822958</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W26" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y26" t="n">
         <v>404.2032624633431</v>
@@ -2797,7 +2797,7 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D29" t="n">
-        <v>427.7966985881112</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E29" t="n">
         <v>429.4369973932878</v>
@@ -2806,10 +2806,10 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>395.561099664736</v>
       </c>
       <c r="H29" t="n">
-        <v>267.5715797715652</v>
+        <v>78.14394357256965</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2845,7 +2845,7 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>209.8874518549281</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>256.4842593842947</v>
@@ -3034,13 +3034,13 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D32" t="n">
-        <v>431.5506869772999</v>
+        <v>32.23559892337597</v>
       </c>
       <c r="E32" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G32" t="n">
         <v>395.561099664736</v>
@@ -3079,10 +3079,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>41.27936201577356</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>192.8817570801139</v>
+        <v>209.8874518549281</v>
       </c>
       <c r="U32" t="n">
         <v>256.4842593842947</v>
@@ -3268,22 +3268,22 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C35" t="n">
-        <v>286.5626666024457</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E35" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G35" t="n">
-        <v>395.561099664736</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>267.5715797715652</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,19 +3316,19 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>41.27936201577355</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>209.8874518549281</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>256.4842593842947</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>39.12368315666154</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -3429,10 +3429,10 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D37" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>174.9399834978613</v>
@@ -3441,7 +3441,7 @@
         <v>163.1177378005102</v>
       </c>
       <c r="H37" t="n">
-        <v>131.2337281429463</v>
+        <v>25.3094744405144</v>
       </c>
       <c r="I37" t="n">
         <v>63.18515342099344</v>
@@ -3477,7 +3477,7 @@
         <v>143.3999911908438</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>239.9271657823968</v>
       </c>
       <c r="U37" t="n">
         <v>275.6040730435755</v>
@@ -3489,10 +3489,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X37" t="n">
-        <v>26.86874947673469</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="38">
@@ -3502,25 +3502,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C38" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>314.5339010981725</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>395.561099664736</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>267.5715797715652</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>41.27936201577355</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -3562,16 +3562,16 @@
         <v>256.4842593842947</v>
       </c>
       <c r="V38" t="n">
-        <v>358.9907805655117</v>
+        <v>36.81463538412901</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="39">
@@ -3675,13 +3675,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
-        <v>163.1177378005102</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>63.18515342099344</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,13 +3711,13 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>88.88936631194629</v>
       </c>
       <c r="T40" t="n">
         <v>239.9271657823968</v>
       </c>
       <c r="U40" t="n">
-        <v>264.5608549760049</v>
+        <v>275.6040730435755</v>
       </c>
       <c r="V40" t="n">
         <v>284.0859530482738</v>
@@ -3739,25 +3739,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>19.13130231485222</v>
+        <v>332.059239802599</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>395.561099664736</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>267.5715797715652</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>41.27936201577356</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>209.8874518549281</v>
@@ -3799,16 +3799,16 @@
         <v>256.4842593842947</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="42">
@@ -3900,16 +3900,16 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C43" t="n">
-        <v>117.1841907653708</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>60.09914049810855</v>
       </c>
       <c r="G43" t="n">
         <v>163.1177378005102</v>
@@ -3966,7 +3966,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="44">
@@ -3979,19 +3979,19 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>423.5887552948843</v>
+        <v>157.5445575153135</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>395.561099664736</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>41.27936201577356</v>
+        <v>41.27936201577355</v>
       </c>
       <c r="T44" t="n">
         <v>209.8874518549281</v>
@@ -4036,13 +4036,13 @@
         <v>256.4842593842947</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
-        <v>24.00284742804311</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>404.2032624633431</v>
@@ -4140,22 +4140,22 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D46" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F46" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>87.3931527915251</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>131.2337281429463</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>27.72035137608479</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4185,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>143.3999911908438</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>239.9271657823968</v>
@@ -4200,7 +4200,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y46" t="n">
         <v>225.1454739790328</v>
@@ -5017,40 +5017,40 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>847.4019318730149</v>
+        <v>715.6928255181559</v>
       </c>
       <c r="C11" t="n">
-        <v>847.4019318730149</v>
+        <v>715.6928255181559</v>
       </c>
       <c r="D11" t="n">
-        <v>473.7292657793508</v>
+        <v>715.6928255181559</v>
       </c>
       <c r="E11" t="n">
-        <v>473.7292657793508</v>
+        <v>715.6928255181559</v>
       </c>
       <c r="F11" t="n">
-        <v>45.8618361885586</v>
+        <v>715.6928255181559</v>
       </c>
       <c r="G11" t="n">
-        <v>45.8618361885586</v>
+        <v>316.1361591901397</v>
       </c>
       <c r="H11" t="n">
-        <v>45.8618361885586</v>
+        <v>45.86183618855861</v>
       </c>
       <c r="I11" t="n">
-        <v>115.0223243057315</v>
+        <v>115.022324305731</v>
       </c>
       <c r="J11" t="n">
-        <v>268.1792013766522</v>
+        <v>268.1792013766517</v>
       </c>
       <c r="K11" t="n">
-        <v>497.7216582812914</v>
+        <v>497.721658281291</v>
       </c>
       <c r="L11" t="n">
-        <v>782.489373603983</v>
+        <v>782.4893736039828</v>
       </c>
       <c r="M11" t="n">
-        <v>1099.348325765038</v>
+        <v>1099.348325765037</v>
       </c>
       <c r="N11" t="n">
         <v>1421.334387037893</v>
@@ -5068,25 +5068,25 @@
         <v>2293.09180942793</v>
       </c>
       <c r="S11" t="n">
-        <v>2293.09180942793</v>
+        <v>2251.395484159472</v>
       </c>
       <c r="T11" t="n">
-        <v>2293.09180942793</v>
+        <v>2251.395484159472</v>
       </c>
       <c r="U11" t="n">
-        <v>2034.016799948844</v>
+        <v>2251.395484159472</v>
       </c>
       <c r="V11" t="n">
-        <v>1671.399849882671</v>
+        <v>2251.395484159472</v>
       </c>
       <c r="W11" t="n">
-        <v>1266.544395293704</v>
+        <v>1969.4209831241</v>
       </c>
       <c r="X11" t="n">
-        <v>847.4019318730149</v>
+        <v>1550.27851970341</v>
       </c>
       <c r="Y11" t="n">
-        <v>847.4019318730149</v>
+        <v>1141.992396003064</v>
       </c>
     </row>
     <row r="12">
@@ -5111,37 +5111,37 @@
         <v>162.483377839541</v>
       </c>
       <c r="G12" t="n">
-        <v>78.08339825419795</v>
+        <v>78.08339825419796</v>
       </c>
       <c r="H12" t="n">
-        <v>45.8618361885586</v>
+        <v>45.86183618855861</v>
       </c>
       <c r="I12" t="n">
-        <v>105.1677272598503</v>
+        <v>79.1040540993927</v>
       </c>
       <c r="J12" t="n">
-        <v>196.3869140136435</v>
+        <v>217.6935543531093</v>
       </c>
       <c r="K12" t="n">
-        <v>352.2950333541758</v>
+        <v>373.6016736936416</v>
       </c>
       <c r="L12" t="n">
-        <v>561.932740064474</v>
+        <v>583.2393804039399</v>
       </c>
       <c r="M12" t="n">
-        <v>806.5700558235675</v>
+        <v>827.8766961630336</v>
       </c>
       <c r="N12" t="n">
-        <v>1057.682193389752</v>
+        <v>1078.988833729218</v>
       </c>
       <c r="O12" t="n">
-        <v>1287.400740524659</v>
+        <v>1308.707380864125</v>
       </c>
       <c r="P12" t="n">
-        <v>1471.770126945282</v>
+        <v>1493.076767284748</v>
       </c>
       <c r="Q12" t="n">
-        <v>1595.01617918438</v>
+        <v>1616.322819523846</v>
       </c>
       <c r="R12" t="n">
         <v>1676.26891337681</v>
@@ -5175,46 +5175,46 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>967.9795171413245</v>
+        <v>761.2713141432845</v>
       </c>
       <c r="C13" t="n">
-        <v>855.529599848741</v>
+        <v>588.7096026265094</v>
       </c>
       <c r="D13" t="n">
-        <v>689.6516070502637</v>
+        <v>588.7096026265094</v>
       </c>
       <c r="E13" t="n">
-        <v>519.893603301001</v>
+        <v>418.9515988772466</v>
       </c>
       <c r="F13" t="n">
-        <v>343.1865492627572</v>
+        <v>242.2445448390028</v>
       </c>
       <c r="G13" t="n">
-        <v>178.4211575450701</v>
+        <v>242.2445448390028</v>
       </c>
       <c r="H13" t="n">
-        <v>45.8618361885586</v>
+        <v>109.6852234824914</v>
       </c>
       <c r="I13" t="n">
-        <v>45.8618361885586</v>
+        <v>45.86183618855861</v>
       </c>
       <c r="J13" t="n">
         <v>103.0898224920169</v>
       </c>
       <c r="K13" t="n">
-        <v>471.8914383024731</v>
+        <v>197.1329837313376</v>
       </c>
       <c r="L13" t="n">
-        <v>592.2343067616164</v>
+        <v>317.4758521904809</v>
       </c>
       <c r="M13" t="n">
-        <v>1159.774529595029</v>
+        <v>885.0160750238937</v>
       </c>
       <c r="N13" t="n">
-        <v>1725.900980103338</v>
+        <v>1062.22761838282</v>
       </c>
       <c r="O13" t="n">
-        <v>1840.312800991363</v>
+        <v>1596.308688496626</v>
       </c>
       <c r="P13" t="n">
         <v>2041.714660489497</v>
@@ -5226,25 +5226,25 @@
         <v>2293.09180942793</v>
       </c>
       <c r="S13" t="n">
-        <v>2293.09180942793</v>
+        <v>2218.666387705199</v>
       </c>
       <c r="T13" t="n">
-        <v>2050.741136920458</v>
+        <v>1976.315715197728</v>
       </c>
       <c r="U13" t="n">
-        <v>1772.35318435119</v>
+        <v>1697.927762628459</v>
       </c>
       <c r="V13" t="n">
-        <v>1485.39767622162</v>
+        <v>1697.927762628459</v>
       </c>
       <c r="W13" t="n">
-        <v>1213.371271807912</v>
+        <v>1425.901358214751</v>
       </c>
       <c r="X13" t="n">
-        <v>967.9795171413245</v>
+        <v>1180.509603548163</v>
       </c>
       <c r="Y13" t="n">
-        <v>967.9795171413245</v>
+        <v>953.0899328622716</v>
       </c>
     </row>
     <row r="14">
@@ -5254,37 +5254,37 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1888.236354838963</v>
+        <v>1309.195716932923</v>
       </c>
       <c r="C14" t="n">
-        <v>1888.236354838963</v>
+        <v>1309.195716932923</v>
       </c>
       <c r="D14" t="n">
-        <v>1452.326570013407</v>
+        <v>873.2859321073672</v>
       </c>
       <c r="E14" t="n">
-        <v>1018.551825171702</v>
+        <v>873.2859321073672</v>
       </c>
       <c r="F14" t="n">
-        <v>590.6843955809102</v>
+        <v>445.4185025165749</v>
       </c>
       <c r="G14" t="n">
-        <v>191.1277292528939</v>
+        <v>45.86183618855861</v>
       </c>
       <c r="H14" t="n">
-        <v>45.86183618855859</v>
+        <v>45.86183618855861</v>
       </c>
       <c r="I14" t="n">
-        <v>115.0223243057313</v>
+        <v>115.0223243057311</v>
       </c>
       <c r="J14" t="n">
-        <v>268.179201376652</v>
+        <v>268.1792013766519</v>
       </c>
       <c r="K14" t="n">
         <v>497.7216582812911</v>
       </c>
       <c r="L14" t="n">
-        <v>782.4893736039828</v>
+        <v>782.4893736039829</v>
       </c>
       <c r="M14" t="n">
         <v>1099.348325765037</v>
@@ -5296,7 +5296,7 @@
         <v>1725.376694248109</v>
       </c>
       <c r="P14" t="n">
-        <v>1984.869769184643</v>
+        <v>1984.869769184644</v>
       </c>
       <c r="Q14" t="n">
         <v>2179.738261607712</v>
@@ -5305,25 +5305,25 @@
         <v>2293.09180942793</v>
       </c>
       <c r="S14" t="n">
-        <v>2293.09180942793</v>
+        <v>2251.395484159472</v>
       </c>
       <c r="T14" t="n">
-        <v>2293.09180942793</v>
+        <v>2251.395484159472</v>
       </c>
       <c r="U14" t="n">
-        <v>2293.09180942793</v>
+        <v>2251.395484159472</v>
       </c>
       <c r="V14" t="n">
-        <v>2293.09180942793</v>
+        <v>2251.395484159472</v>
       </c>
       <c r="W14" t="n">
-        <v>1888.236354838963</v>
+        <v>2251.395484159472</v>
       </c>
       <c r="X14" t="n">
-        <v>1888.236354838963</v>
+        <v>1832.253020738783</v>
       </c>
       <c r="Y14" t="n">
-        <v>1888.236354838963</v>
+        <v>1735.495287417831</v>
       </c>
     </row>
     <row r="15">
@@ -5333,46 +5333,46 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>541.5343809132301</v>
+        <v>541.5343809132302</v>
       </c>
       <c r="C15" t="n">
         <v>435.0779197498724</v>
       </c>
       <c r="D15" t="n">
-        <v>339.9876308964256</v>
+        <v>339.9876308964257</v>
       </c>
       <c r="E15" t="n">
-        <v>245.8672162233793</v>
+        <v>245.8672162233794</v>
       </c>
       <c r="F15" t="n">
         <v>162.483377839541</v>
       </c>
       <c r="G15" t="n">
-        <v>78.08339825419795</v>
+        <v>78.08339825419796</v>
       </c>
       <c r="H15" t="n">
-        <v>45.86183618855859</v>
+        <v>45.86183618855861</v>
       </c>
       <c r="I15" t="n">
         <v>105.1677272598503</v>
       </c>
       <c r="J15" t="n">
-        <v>196.3869140136435</v>
+        <v>196.3869140136436</v>
       </c>
       <c r="K15" t="n">
-        <v>352.2950333541757</v>
+        <v>352.2950333541759</v>
       </c>
       <c r="L15" t="n">
-        <v>561.9327400644739</v>
+        <v>561.9327400644742</v>
       </c>
       <c r="M15" t="n">
-        <v>827.8766961630339</v>
+        <v>806.5700558235677</v>
       </c>
       <c r="N15" t="n">
-        <v>1078.988833729219</v>
+        <v>1057.682193389752</v>
       </c>
       <c r="O15" t="n">
-        <v>1308.707380864125</v>
+        <v>1287.400740524659</v>
       </c>
       <c r="P15" t="n">
         <v>1493.076767284748</v>
@@ -5399,10 +5399,10 @@
         <v>944.1914969748925</v>
       </c>
       <c r="X15" t="n">
-        <v>789.3240612137724</v>
+        <v>789.3240612137726</v>
       </c>
       <c r="Y15" t="n">
-        <v>662.8382819929932</v>
+        <v>662.8382819929933</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>649.2845064526857</v>
+        <v>548.741227736446</v>
       </c>
       <c r="C16" t="n">
-        <v>649.2845064526857</v>
+        <v>376.179516219671</v>
       </c>
       <c r="D16" t="n">
-        <v>620.915672987685</v>
+        <v>376.179516219671</v>
       </c>
       <c r="E16" t="n">
-        <v>451.1576692384223</v>
+        <v>376.179516219671</v>
       </c>
       <c r="F16" t="n">
-        <v>274.4506152001785</v>
+        <v>199.4724621814272</v>
       </c>
       <c r="G16" t="n">
-        <v>109.6852234824914</v>
+        <v>45.86183618855861</v>
       </c>
       <c r="H16" t="n">
-        <v>109.6852234824914</v>
+        <v>45.86183618855861</v>
       </c>
       <c r="I16" t="n">
-        <v>45.86183618855859</v>
+        <v>45.86183618855861</v>
       </c>
       <c r="J16" t="n">
         <v>103.0898224920169</v>
       </c>
       <c r="K16" t="n">
-        <v>197.1329837313375</v>
+        <v>197.1329837313376</v>
       </c>
       <c r="L16" t="n">
-        <v>735.6857339584417</v>
+        <v>444.2606138757728</v>
       </c>
       <c r="M16" t="n">
-        <v>862.5704154333717</v>
+        <v>1011.800836709186</v>
       </c>
       <c r="N16" t="n">
-        <v>1428.69686594168</v>
+        <v>1577.927287217494</v>
       </c>
       <c r="O16" t="n">
-        <v>1962.777936055487</v>
+        <v>2112.0083573313</v>
       </c>
       <c r="P16" t="n">
         <v>2209.907435353829</v>
       </c>
       <c r="Q16" t="n">
-        <v>2277.687682472403</v>
+        <v>2277.687682472404</v>
       </c>
       <c r="R16" t="n">
         <v>2293.09180942793</v>
       </c>
       <c r="S16" t="n">
-        <v>2148.243333477582</v>
+        <v>2293.09180942793</v>
       </c>
       <c r="T16" t="n">
-        <v>1905.892660970111</v>
+        <v>2050.741136920459</v>
       </c>
       <c r="U16" t="n">
-        <v>1627.504708400843</v>
+        <v>1772.353184351191</v>
       </c>
       <c r="V16" t="n">
-        <v>1340.549200271273</v>
+        <v>1485.397676221621</v>
       </c>
       <c r="W16" t="n">
-        <v>1068.522795857565</v>
+        <v>1213.371271807913</v>
       </c>
       <c r="X16" t="n">
-        <v>1068.522795857565</v>
+        <v>967.979517141325</v>
       </c>
       <c r="Y16" t="n">
-        <v>841.1031251716729</v>
+        <v>740.5598464554332</v>
       </c>
     </row>
     <row r="17">
@@ -5491,52 +5491,52 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1040.249859335792</v>
+        <v>1210.018881939189</v>
       </c>
       <c r="C17" t="n">
-        <v>907.5040106210556</v>
+        <v>771.8764091226121</v>
       </c>
       <c r="D17" t="n">
-        <v>907.5040106210556</v>
+        <v>335.9666242970566</v>
       </c>
       <c r="E17" t="n">
-        <v>473.7292657793508</v>
+        <v>335.9666242970566</v>
       </c>
       <c r="F17" t="n">
-        <v>45.8618361885586</v>
+        <v>335.9666242970566</v>
       </c>
       <c r="G17" t="n">
-        <v>45.8618361885586</v>
+        <v>45.86183618855861</v>
       </c>
       <c r="H17" t="n">
-        <v>45.8618361885586</v>
+        <v>45.86183618855861</v>
       </c>
       <c r="I17" t="n">
-        <v>115.0223243057316</v>
+        <v>115.0223243057313</v>
       </c>
       <c r="J17" t="n">
-        <v>268.1792013766522</v>
+        <v>268.1792013766525</v>
       </c>
       <c r="K17" t="n">
-        <v>497.7216582812914</v>
+        <v>497.7216582812918</v>
       </c>
       <c r="L17" t="n">
-        <v>782.4893736039832</v>
+        <v>782.4893736039835</v>
       </c>
       <c r="M17" t="n">
         <v>1099.348325765038</v>
       </c>
       <c r="N17" t="n">
-        <v>1421.334387037893</v>
+        <v>1421.334387037894</v>
       </c>
       <c r="O17" t="n">
-        <v>1725.376694248109</v>
+        <v>1725.37669424811</v>
       </c>
       <c r="P17" t="n">
-        <v>1984.869769184644</v>
+        <v>1984.869769184645</v>
       </c>
       <c r="Q17" t="n">
-        <v>2179.738261607712</v>
+        <v>2179.738261607713</v>
       </c>
       <c r="R17" t="n">
         <v>2293.09180942793</v>
@@ -5545,22 +5545,22 @@
         <v>2293.09180942793</v>
       </c>
       <c r="T17" t="n">
-        <v>2081.08428230174</v>
+        <v>2293.09180942793</v>
       </c>
       <c r="U17" t="n">
-        <v>1822.009272822655</v>
+        <v>2034.016799948845</v>
       </c>
       <c r="V17" t="n">
-        <v>1459.392322756481</v>
+        <v>2034.016799948845</v>
       </c>
       <c r="W17" t="n">
-        <v>1459.392322756481</v>
+        <v>1629.161345359878</v>
       </c>
       <c r="X17" t="n">
-        <v>1040.249859335792</v>
+        <v>1210.018881939189</v>
       </c>
       <c r="Y17" t="n">
-        <v>1040.249859335792</v>
+        <v>1210.018881939189</v>
       </c>
     </row>
     <row r="18">
@@ -5570,49 +5570,49 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>541.5343809132301</v>
+        <v>541.5343809132302</v>
       </c>
       <c r="C18" t="n">
         <v>435.0779197498724</v>
       </c>
       <c r="D18" t="n">
-        <v>339.9876308964256</v>
+        <v>339.9876308964257</v>
       </c>
       <c r="E18" t="n">
-        <v>245.8672162233793</v>
+        <v>245.8672162233794</v>
       </c>
       <c r="F18" t="n">
         <v>162.483377839541</v>
       </c>
       <c r="G18" t="n">
-        <v>78.08339825419795</v>
+        <v>78.08339825419796</v>
       </c>
       <c r="H18" t="n">
-        <v>45.8618361885586</v>
+        <v>45.86183618855861</v>
       </c>
       <c r="I18" t="n">
-        <v>79.10405409939268</v>
+        <v>105.1677272598503</v>
       </c>
       <c r="J18" t="n">
-        <v>170.3232408531859</v>
+        <v>217.6935543531096</v>
       </c>
       <c r="K18" t="n">
-        <v>326.2313601937182</v>
+        <v>373.6016736936418</v>
       </c>
       <c r="L18" t="n">
-        <v>535.8690669040164</v>
+        <v>583.2393804039401</v>
       </c>
       <c r="M18" t="n">
-        <v>780.50638266311</v>
+        <v>827.8766961630338</v>
       </c>
       <c r="N18" t="n">
-        <v>1031.618520229295</v>
+        <v>1078.988833729219</v>
       </c>
       <c r="O18" t="n">
-        <v>1261.337067364201</v>
+        <v>1308.707380864125</v>
       </c>
       <c r="P18" t="n">
-        <v>1445.706453784825</v>
+        <v>1493.076767284748</v>
       </c>
       <c r="Q18" t="n">
         <v>1616.322819523846</v>
@@ -5636,10 +5636,10 @@
         <v>944.1914969748925</v>
       </c>
       <c r="X18" t="n">
-        <v>789.3240612137724</v>
+        <v>789.3240612137726</v>
       </c>
       <c r="Y18" t="n">
-        <v>662.8382819929932</v>
+        <v>662.8382819929933</v>
       </c>
     </row>
     <row r="19">
@@ -5649,49 +5649,49 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>682.2807043553669</v>
+        <v>927.1493069417618</v>
       </c>
       <c r="C19" t="n">
-        <v>509.7189928385918</v>
+        <v>754.5875954249867</v>
       </c>
       <c r="D19" t="n">
-        <v>509.7189928385918</v>
+        <v>588.7096026265094</v>
       </c>
       <c r="E19" t="n">
-        <v>451.1576692384223</v>
+        <v>418.9515988772466</v>
       </c>
       <c r="F19" t="n">
-        <v>274.4506152001785</v>
+        <v>242.2445448390028</v>
       </c>
       <c r="G19" t="n">
-        <v>109.6852234824914</v>
+        <v>242.2445448390028</v>
       </c>
       <c r="H19" t="n">
         <v>109.6852234824914</v>
       </c>
       <c r="I19" t="n">
-        <v>45.8618361885586</v>
+        <v>45.86183618855861</v>
       </c>
       <c r="J19" t="n">
-        <v>189.6695076567067</v>
+        <v>103.0898224920169</v>
       </c>
       <c r="K19" t="n">
-        <v>558.4711234671629</v>
+        <v>197.1329837313375</v>
       </c>
       <c r="L19" t="n">
-        <v>678.8139919263061</v>
+        <v>735.6857339584418</v>
       </c>
       <c r="M19" t="n">
-        <v>1246.354214759719</v>
+        <v>1303.225956791855</v>
       </c>
       <c r="N19" t="n">
-        <v>1370.221862110383</v>
+        <v>1427.093604142519</v>
       </c>
       <c r="O19" t="n">
-        <v>1904.302932224189</v>
+        <v>1961.174674256325</v>
       </c>
       <c r="P19" t="n">
-        <v>2041.714660489497</v>
+        <v>2209.907435353829</v>
       </c>
       <c r="Q19" t="n">
         <v>2277.687682472404</v>
@@ -5700,25 +5700,25 @@
         <v>2293.09180942793</v>
       </c>
       <c r="S19" t="n">
-        <v>2148.243333477583</v>
+        <v>2201.729545439883</v>
       </c>
       <c r="T19" t="n">
-        <v>1905.892660970111</v>
+        <v>2201.729545439883</v>
       </c>
       <c r="U19" t="n">
-        <v>1905.892660970111</v>
+        <v>1923.341592870614</v>
       </c>
       <c r="V19" t="n">
-        <v>1618.937152840542</v>
+        <v>1636.386084741045</v>
       </c>
       <c r="W19" t="n">
-        <v>1346.910748426833</v>
+        <v>1364.359680327336</v>
       </c>
       <c r="X19" t="n">
-        <v>1101.518993760246</v>
+        <v>1118.967925660749</v>
       </c>
       <c r="Y19" t="n">
-        <v>874.0993230743541</v>
+        <v>1118.967925660749</v>
       </c>
     </row>
     <row r="20">
@@ -5728,40 +5728,40 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>987.4235786374001</v>
+        <v>715.6928255181559</v>
       </c>
       <c r="C20" t="n">
-        <v>987.4235786374001</v>
+        <v>715.6928255181559</v>
       </c>
       <c r="D20" t="n">
-        <v>551.5137938118446</v>
+        <v>715.6928255181559</v>
       </c>
       <c r="E20" t="n">
-        <v>445.4185025165748</v>
+        <v>715.6928255181559</v>
       </c>
       <c r="F20" t="n">
-        <v>445.4185025165748</v>
+        <v>715.6928255181559</v>
       </c>
       <c r="G20" t="n">
-        <v>45.8618361885586</v>
+        <v>316.1361591901397</v>
       </c>
       <c r="H20" t="n">
-        <v>45.8618361885586</v>
+        <v>45.86183618855861</v>
       </c>
       <c r="I20" t="n">
         <v>115.0223243057313</v>
       </c>
       <c r="J20" t="n">
-        <v>268.1792013766519</v>
+        <v>268.179201376652</v>
       </c>
       <c r="K20" t="n">
-        <v>497.7216582812911</v>
+        <v>497.7216582812912</v>
       </c>
       <c r="L20" t="n">
-        <v>782.4893736039828</v>
+        <v>782.4893736039829</v>
       </c>
       <c r="M20" t="n">
-        <v>1099.348325765038</v>
+        <v>1099.348325765037</v>
       </c>
       <c r="N20" t="n">
         <v>1421.334387037893</v>
@@ -5779,25 +5779,25 @@
         <v>2293.09180942793</v>
       </c>
       <c r="S20" t="n">
-        <v>2293.09180942793</v>
+        <v>2251.395484159472</v>
       </c>
       <c r="T20" t="n">
-        <v>2081.08428230174</v>
+        <v>2039.387957033282</v>
       </c>
       <c r="U20" t="n">
-        <v>1822.009272822655</v>
+        <v>1780.312947554197</v>
       </c>
       <c r="V20" t="n">
-        <v>1822.009272822655</v>
+        <v>1417.695997488023</v>
       </c>
       <c r="W20" t="n">
-        <v>1822.009272822655</v>
+        <v>1123.978949218503</v>
       </c>
       <c r="X20" t="n">
-        <v>1822.009272822655</v>
+        <v>1123.978949218503</v>
       </c>
       <c r="Y20" t="n">
-        <v>1413.723149122308</v>
+        <v>715.6928255181559</v>
       </c>
     </row>
     <row r="21">
@@ -5807,52 +5807,52 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>541.5343809132301</v>
+        <v>541.5343809132302</v>
       </c>
       <c r="C21" t="n">
         <v>435.0779197498724</v>
       </c>
       <c r="D21" t="n">
-        <v>339.9876308964256</v>
+        <v>339.9876308964257</v>
       </c>
       <c r="E21" t="n">
-        <v>245.8672162233793</v>
+        <v>245.8672162233794</v>
       </c>
       <c r="F21" t="n">
         <v>162.483377839541</v>
       </c>
       <c r="G21" t="n">
-        <v>78.08339825419795</v>
+        <v>78.08339825419796</v>
       </c>
       <c r="H21" t="n">
-        <v>45.8618361885586</v>
+        <v>45.86183618855861</v>
       </c>
       <c r="I21" t="n">
-        <v>79.10405409939268</v>
+        <v>105.1677272598503</v>
       </c>
       <c r="J21" t="n">
-        <v>217.6935543531099</v>
+        <v>196.3869140136435</v>
       </c>
       <c r="K21" t="n">
-        <v>373.6016736936421</v>
+        <v>352.2950333541758</v>
       </c>
       <c r="L21" t="n">
-        <v>583.2393804039403</v>
+        <v>561.9327400644742</v>
       </c>
       <c r="M21" t="n">
-        <v>827.8766961630339</v>
+        <v>806.5700558235677</v>
       </c>
       <c r="N21" t="n">
-        <v>1078.988833729219</v>
+        <v>1057.682193389752</v>
       </c>
       <c r="O21" t="n">
-        <v>1308.707380864125</v>
+        <v>1287.400740524659</v>
       </c>
       <c r="P21" t="n">
-        <v>1493.076767284748</v>
+        <v>1471.770126945283</v>
       </c>
       <c r="Q21" t="n">
-        <v>1616.322819523846</v>
+        <v>1595.01617918438</v>
       </c>
       <c r="R21" t="n">
         <v>1676.26891337681</v>
@@ -5873,10 +5873,10 @@
         <v>944.1914969748925</v>
       </c>
       <c r="X21" t="n">
-        <v>789.3240612137724</v>
+        <v>789.3240612137726</v>
       </c>
       <c r="Y21" t="n">
-        <v>662.8382819929932</v>
+        <v>662.8382819929933</v>
       </c>
     </row>
     <row r="22">
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>403.8927517860987</v>
+        <v>954.3071087690757</v>
       </c>
       <c r="C22" t="n">
-        <v>231.3310402693236</v>
+        <v>781.7453972523007</v>
       </c>
       <c r="D22" t="n">
-        <v>231.3310402693236</v>
+        <v>615.8674044538234</v>
       </c>
       <c r="E22" t="n">
-        <v>61.5730365200609</v>
+        <v>446.1094007045606</v>
       </c>
       <c r="F22" t="n">
-        <v>61.5730365200609</v>
+        <v>269.4023466663168</v>
       </c>
       <c r="G22" t="n">
-        <v>45.8618361885586</v>
+        <v>109.6852234824914</v>
       </c>
       <c r="H22" t="n">
-        <v>45.8618361885586</v>
+        <v>109.6852234824914</v>
       </c>
       <c r="I22" t="n">
-        <v>45.8618361885586</v>
+        <v>45.86183618855861</v>
       </c>
       <c r="J22" t="n">
         <v>103.0898224920169</v>
@@ -5916,10 +5916,10 @@
         <v>197.1329837313375</v>
       </c>
       <c r="L22" t="n">
-        <v>317.4758521904807</v>
+        <v>317.4758521904808</v>
       </c>
       <c r="M22" t="n">
-        <v>885.0160750238934</v>
+        <v>885.0160750238936</v>
       </c>
       <c r="N22" t="n">
         <v>1451.142525532202</v>
@@ -5940,22 +5940,22 @@
         <v>2148.243333477583</v>
       </c>
       <c r="T22" t="n">
-        <v>1905.892660970111</v>
+        <v>1905.892660970112</v>
       </c>
       <c r="U22" t="n">
-        <v>1627.504708400843</v>
+        <v>1905.892660970112</v>
       </c>
       <c r="V22" t="n">
-        <v>1340.549200271274</v>
+        <v>1618.937152840542</v>
       </c>
       <c r="W22" t="n">
-        <v>1068.522795857565</v>
+        <v>1618.937152840542</v>
       </c>
       <c r="X22" t="n">
-        <v>823.1310411909776</v>
+        <v>1373.545398173955</v>
       </c>
       <c r="Y22" t="n">
-        <v>595.7113705050858</v>
+        <v>1146.125727488063</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2226.974770779763</v>
+        <v>2497.249093781344</v>
       </c>
       <c r="C23" t="n">
-        <v>1788.832297963186</v>
+        <v>2059.106620964767</v>
       </c>
       <c r="D23" t="n">
-        <v>1352.922513137631</v>
+        <v>1623.196836139212</v>
       </c>
       <c r="E23" t="n">
-        <v>919.1477682959257</v>
+        <v>1189.422091297507</v>
       </c>
       <c r="F23" t="n">
-        <v>491.2803387051334</v>
+        <v>761.5546617067146</v>
       </c>
       <c r="G23" t="n">
-        <v>91.7236723771172</v>
+        <v>361.9979953786982</v>
       </c>
       <c r="H23" t="n">
-        <v>91.7236723771172</v>
+        <v>91.72367237711723</v>
       </c>
       <c r="I23" t="n">
         <v>160.8841604942899</v>
       </c>
       <c r="J23" t="n">
-        <v>314.0410375652105</v>
+        <v>352.1120580544135</v>
       </c>
       <c r="K23" t="n">
-        <v>543.5834944698497</v>
+        <v>1416.004806917231</v>
       </c>
       <c r="L23" t="n">
-        <v>1678.663940136675</v>
+        <v>1700.772522239923</v>
       </c>
       <c r="M23" t="n">
-        <v>1995.522892297729</v>
+        <v>2017.631474400977</v>
       </c>
       <c r="N23" t="n">
-        <v>3130.603337964555</v>
+        <v>2339.617535673833</v>
       </c>
       <c r="O23" t="n">
-        <v>4018.468503676039</v>
+        <v>2643.659842884049</v>
       </c>
       <c r="P23" t="n">
-        <v>4277.961578612573</v>
+        <v>3731.46279265398</v>
       </c>
       <c r="Q23" t="n">
-        <v>4472.830071035642</v>
+        <v>4472.830071035643</v>
       </c>
       <c r="R23" t="n">
-        <v>4586.18361885586</v>
+        <v>4586.183618855861</v>
       </c>
       <c r="S23" t="n">
-        <v>4544.487293587402</v>
+        <v>4544.487293587403</v>
       </c>
       <c r="T23" t="n">
         <v>4332.479766461212</v>
       </c>
       <c r="U23" t="n">
-        <v>4248.175333040846</v>
+        <v>4073.404756982127</v>
       </c>
       <c r="V23" t="n">
-        <v>3885.558382974673</v>
+        <v>3750.977251387287</v>
       </c>
       <c r="W23" t="n">
-        <v>3480.702928385706</v>
+        <v>3750.977251387287</v>
       </c>
       <c r="X23" t="n">
-        <v>3061.560464965017</v>
+        <v>3331.834787966598</v>
       </c>
       <c r="Y23" t="n">
-        <v>2653.274341264671</v>
+        <v>2923.548664266251</v>
       </c>
     </row>
     <row r="24">
@@ -6059,37 +6059,37 @@
         <v>208.3452140280996</v>
       </c>
       <c r="G24" t="n">
-        <v>123.9452344427565</v>
+        <v>123.9452344427566</v>
       </c>
       <c r="H24" t="n">
-        <v>91.7236723771172</v>
+        <v>91.72367237711723</v>
       </c>
       <c r="I24" t="n">
-        <v>124.9658902879513</v>
+        <v>151.0295634484089</v>
       </c>
       <c r="J24" t="n">
-        <v>216.1850770417445</v>
+        <v>242.2487502022022</v>
       </c>
       <c r="K24" t="n">
-        <v>372.0931963822768</v>
+        <v>398.1568695427345</v>
       </c>
       <c r="L24" t="n">
-        <v>581.730903092575</v>
+        <v>607.7945762530327</v>
       </c>
       <c r="M24" t="n">
-        <v>826.3682188516686</v>
+        <v>852.4318920121262</v>
       </c>
       <c r="N24" t="n">
-        <v>1124.850669917777</v>
+        <v>1103.544029578311</v>
       </c>
       <c r="O24" t="n">
-        <v>1354.569217052684</v>
+        <v>1333.262576713218</v>
       </c>
       <c r="P24" t="n">
-        <v>1538.938603473307</v>
+        <v>1517.631963133841</v>
       </c>
       <c r="Q24" t="n">
-        <v>1662.184655712404</v>
+        <v>1640.878015372939</v>
       </c>
       <c r="R24" t="n">
         <v>1722.130749565368</v>
@@ -6135,7 +6135,7 @@
         <v>629.5788267834923</v>
       </c>
       <c r="F25" t="n">
-        <v>452.8717727452485</v>
+        <v>452.8717727452486</v>
       </c>
       <c r="G25" t="n">
         <v>288.1063810275614</v>
@@ -6144,28 +6144,28 @@
         <v>155.54705967105</v>
       </c>
       <c r="I25" t="n">
-        <v>91.7236723771172</v>
+        <v>91.72367237711723</v>
       </c>
       <c r="J25" t="n">
-        <v>235.5313438452653</v>
+        <v>235.5313438452654</v>
       </c>
       <c r="K25" t="n">
-        <v>329.574505084586</v>
+        <v>604.3329596557217</v>
       </c>
       <c r="L25" t="n">
-        <v>868.1272553116902</v>
+        <v>1142.885709882826</v>
       </c>
       <c r="M25" t="n">
-        <v>1454.495803967533</v>
+        <v>1269.770391357756</v>
       </c>
       <c r="N25" t="n">
-        <v>2020.622254475842</v>
+        <v>1796.111401444729</v>
       </c>
       <c r="O25" t="n">
-        <v>2554.703324589648</v>
+        <v>2330.192471558535</v>
       </c>
       <c r="P25" t="n">
-        <v>2943.791218415738</v>
+        <v>2775.598443551406</v>
       </c>
       <c r="Q25" t="n">
         <v>3011.571465534313</v>
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2497.249093781344</v>
+        <v>2052.204194721043</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.106620964767</v>
+        <v>1614.061721904467</v>
       </c>
       <c r="D26" t="n">
-        <v>1623.196836139212</v>
+        <v>1178.151937078911</v>
       </c>
       <c r="E26" t="n">
-        <v>1189.422091297507</v>
+        <v>744.3771922372061</v>
       </c>
       <c r="F26" t="n">
-        <v>761.5546617067145</v>
+        <v>316.5097626464139</v>
       </c>
       <c r="G26" t="n">
-        <v>361.9979953786982</v>
+        <v>91.72367237711723</v>
       </c>
       <c r="H26" t="n">
-        <v>91.7236723771172</v>
+        <v>91.72367237711723</v>
       </c>
       <c r="I26" t="n">
         <v>160.8841604942899</v>
       </c>
       <c r="J26" t="n">
-        <v>749.2957250181283</v>
+        <v>314.0410375652105</v>
       </c>
       <c r="K26" t="n">
-        <v>978.8381819227675</v>
+        <v>1377.933786428028</v>
       </c>
       <c r="L26" t="n">
-        <v>1531.618457486865</v>
+        <v>1700.772522239923</v>
       </c>
       <c r="M26" t="n">
-        <v>1848.47740964792</v>
+        <v>2017.631474400977</v>
       </c>
       <c r="N26" t="n">
-        <v>2170.463470920775</v>
+        <v>2339.617535673833</v>
       </c>
       <c r="O26" t="n">
-        <v>2474.505778130992</v>
+        <v>2643.659842884049</v>
       </c>
       <c r="P26" t="n">
-        <v>3562.308727900922</v>
+        <v>3731.46279265398</v>
       </c>
       <c r="Q26" t="n">
-        <v>4303.676006282585</v>
+        <v>4472.830071035643</v>
       </c>
       <c r="R26" t="n">
-        <v>4586.18361885586</v>
+        <v>4586.183618855861</v>
       </c>
       <c r="S26" t="n">
-        <v>4544.487293587402</v>
+        <v>4544.487293587403</v>
       </c>
       <c r="T26" t="n">
         <v>4332.479766461212</v>
       </c>
       <c r="U26" t="n">
-        <v>4073.404756982126</v>
+        <v>4073.404756982127</v>
       </c>
       <c r="V26" t="n">
-        <v>3736.690242555565</v>
+        <v>3710.787806915953</v>
       </c>
       <c r="W26" t="n">
-        <v>3331.834787966598</v>
+        <v>3305.932352326987</v>
       </c>
       <c r="X26" t="n">
-        <v>3331.834787966598</v>
+        <v>2886.789888906298</v>
       </c>
       <c r="Y26" t="n">
-        <v>2923.548664266251</v>
+        <v>2478.503765205951</v>
       </c>
     </row>
     <row r="27">
@@ -6296,19 +6296,19 @@
         <v>208.3452140280996</v>
       </c>
       <c r="G27" t="n">
-        <v>123.9452344427565</v>
+        <v>123.9452344427566</v>
       </c>
       <c r="H27" t="n">
-        <v>91.7236723771172</v>
+        <v>91.72367237711723</v>
       </c>
       <c r="I27" t="n">
         <v>151.0295634484089</v>
       </c>
       <c r="J27" t="n">
-        <v>242.2487502022021</v>
+        <v>242.2487502022022</v>
       </c>
       <c r="K27" t="n">
-        <v>398.1568695427344</v>
+        <v>398.1568695427345</v>
       </c>
       <c r="L27" t="n">
         <v>607.7945762530327</v>
@@ -6320,13 +6320,13 @@
         <v>1103.544029578311</v>
       </c>
       <c r="O27" t="n">
-        <v>1354.569217052684</v>
+        <v>1333.262576713218</v>
       </c>
       <c r="P27" t="n">
-        <v>1538.938603473307</v>
+        <v>1517.631963133841</v>
       </c>
       <c r="Q27" t="n">
-        <v>1662.184655712404</v>
+        <v>1640.878015372939</v>
       </c>
       <c r="R27" t="n">
         <v>1722.130749565368</v>
@@ -6372,7 +6372,7 @@
         <v>629.5788267834923</v>
       </c>
       <c r="F28" t="n">
-        <v>452.8717727452485</v>
+        <v>452.8717727452486</v>
       </c>
       <c r="G28" t="n">
         <v>288.1063810275614</v>
@@ -6381,28 +6381,28 @@
         <v>155.54705967105</v>
       </c>
       <c r="I28" t="n">
-        <v>91.7236723771172</v>
+        <v>91.72367237711723</v>
       </c>
       <c r="J28" t="n">
-        <v>235.5313438452653</v>
+        <v>148.9516586805755</v>
       </c>
       <c r="K28" t="n">
-        <v>604.3329596557215</v>
+        <v>273.2564269178046</v>
       </c>
       <c r="L28" t="n">
-        <v>1142.885709882826</v>
+        <v>811.8091771449089</v>
       </c>
       <c r="M28" t="n">
-        <v>1269.770391357756</v>
+        <v>1398.177725800752</v>
       </c>
       <c r="N28" t="n">
-        <v>1796.111401444729</v>
+        <v>1964.30417630906</v>
       </c>
       <c r="O28" t="n">
-        <v>2330.192471558535</v>
+        <v>2498.385246422867</v>
       </c>
       <c r="P28" t="n">
-        <v>2775.598443551406</v>
+        <v>2943.791218415738</v>
       </c>
       <c r="Q28" t="n">
         <v>3011.571465534313</v>
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2093.9005199895</v>
+        <v>2305.908047115692</v>
       </c>
       <c r="C29" t="n">
-        <v>1655.758047172924</v>
+        <v>1867.765574299115</v>
       </c>
       <c r="D29" t="n">
-        <v>1223.640169811195</v>
+        <v>1431.85578947356</v>
       </c>
       <c r="E29" t="n">
-        <v>789.8654249694905</v>
+        <v>998.0810446318546</v>
       </c>
       <c r="F29" t="n">
-        <v>361.9979953786982</v>
+        <v>570.2136150410624</v>
       </c>
       <c r="G29" t="n">
-        <v>361.9979953786982</v>
+        <v>170.6569487130462</v>
       </c>
       <c r="H29" t="n">
-        <v>91.7236723771172</v>
+        <v>91.72367237711723</v>
       </c>
       <c r="I29" t="n">
         <v>160.8841604942899</v>
       </c>
       <c r="J29" t="n">
-        <v>749.2957250181283</v>
+        <v>314.0410375652105</v>
       </c>
       <c r="K29" t="n">
-        <v>1146.680944858643</v>
+        <v>1377.933786428028</v>
       </c>
       <c r="L29" t="n">
-        <v>1431.448660181334</v>
+        <v>1700.772522239923</v>
       </c>
       <c r="M29" t="n">
-        <v>1748.307612342389</v>
+        <v>2017.631474400977</v>
       </c>
       <c r="N29" t="n">
-        <v>2883.388058009214</v>
+        <v>2339.617535673833</v>
       </c>
       <c r="O29" t="n">
-        <v>4018.468503676039</v>
+        <v>2643.659842884049</v>
       </c>
       <c r="P29" t="n">
-        <v>4277.961578612573</v>
+        <v>3731.46279265398</v>
       </c>
       <c r="Q29" t="n">
-        <v>4472.830071035642</v>
+        <v>4472.830071035643</v>
       </c>
       <c r="R29" t="n">
-        <v>4586.18361885586</v>
+        <v>4586.183618855861</v>
       </c>
       <c r="S29" t="n">
-        <v>4586.18361885586</v>
+        <v>4586.183618855861</v>
       </c>
       <c r="T29" t="n">
-        <v>4374.17609172967</v>
+        <v>4586.183618855861</v>
       </c>
       <c r="U29" t="n">
-        <v>4115.101082250584</v>
+        <v>4327.108609376775</v>
       </c>
       <c r="V29" t="n">
-        <v>3752.484132184411</v>
+        <v>3964.491659310602</v>
       </c>
       <c r="W29" t="n">
-        <v>3347.628677595444</v>
+        <v>3559.636204721635</v>
       </c>
       <c r="X29" t="n">
-        <v>2928.486214174755</v>
+        <v>3140.493741300946</v>
       </c>
       <c r="Y29" t="n">
-        <v>2520.200090474408</v>
+        <v>2732.207617600599</v>
       </c>
     </row>
     <row r="30">
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>3451.449086392282</v>
+        <v>587.3962171017887</v>
       </c>
       <c r="C30" t="n">
-        <v>3344.992625228924</v>
+        <v>480.939755938431</v>
       </c>
       <c r="D30" t="n">
-        <v>3249.902336375477</v>
+        <v>385.8494670849843</v>
       </c>
       <c r="E30" t="n">
-        <v>3155.781921702431</v>
+        <v>291.729052411938</v>
       </c>
       <c r="F30" t="n">
-        <v>3072.398083318592</v>
+        <v>208.3452140280996</v>
       </c>
       <c r="G30" t="n">
-        <v>2987.99810373325</v>
+        <v>123.9452344427566</v>
       </c>
       <c r="H30" t="n">
-        <v>2955.77654166761</v>
+        <v>91.72367237711723</v>
       </c>
       <c r="I30" t="n">
-        <v>2989.018759578445</v>
+        <v>151.0295634484089</v>
       </c>
       <c r="J30" t="n">
-        <v>3080.237946332238</v>
+        <v>263.5553905416681</v>
       </c>
       <c r="K30" t="n">
-        <v>3236.14606567277</v>
+        <v>419.4635098822004</v>
       </c>
       <c r="L30" t="n">
-        <v>3445.783772383068</v>
+        <v>629.1012165924986</v>
       </c>
       <c r="M30" t="n">
-        <v>3690.421088142162</v>
+        <v>873.7385323515923</v>
       </c>
       <c r="N30" t="n">
-        <v>3941.533225708346</v>
+        <v>1124.850669917777</v>
       </c>
       <c r="O30" t="n">
-        <v>4171.251772843253</v>
+        <v>1354.569217052684</v>
       </c>
       <c r="P30" t="n">
-        <v>4355.621159263877</v>
+        <v>1538.938603473307</v>
       </c>
       <c r="Q30" t="n">
-        <v>4526.237525002896</v>
+        <v>1662.184655712404</v>
       </c>
       <c r="R30" t="n">
-        <v>4586.18361885586</v>
+        <v>1722.130749565368</v>
       </c>
       <c r="S30" t="n">
-        <v>4541.026170246277</v>
+        <v>1676.973300955785</v>
       </c>
       <c r="T30" t="n">
-        <v>4414.818211780593</v>
+        <v>1550.7653424901</v>
       </c>
       <c r="U30" t="n">
-        <v>4238.54647465875</v>
+        <v>1374.493605368258</v>
       </c>
       <c r="V30" t="n">
-        <v>4039.42895672075</v>
+        <v>1175.376087430257</v>
       </c>
       <c r="W30" t="n">
-        <v>3854.106202453944</v>
+        <v>990.053333163451</v>
       </c>
       <c r="X30" t="n">
-        <v>3699.238766692824</v>
+        <v>835.1858974023311</v>
       </c>
       <c r="Y30" t="n">
-        <v>3572.752987472045</v>
+        <v>708.7001181815518</v>
       </c>
     </row>
     <row r="31">
@@ -6609,7 +6609,7 @@
         <v>629.5788267834923</v>
       </c>
       <c r="F31" t="n">
-        <v>452.8717727452485</v>
+        <v>452.8717727452486</v>
       </c>
       <c r="G31" t="n">
         <v>288.1063810275614</v>
@@ -6618,28 +6618,28 @@
         <v>155.54705967105</v>
       </c>
       <c r="I31" t="n">
-        <v>91.7236723771172</v>
+        <v>91.72367237711723</v>
       </c>
       <c r="J31" t="n">
-        <v>235.5313438452653</v>
+        <v>148.9516586805755</v>
       </c>
       <c r="K31" t="n">
-        <v>604.3329596557215</v>
+        <v>242.9948199198962</v>
       </c>
       <c r="L31" t="n">
-        <v>1142.885709882826</v>
+        <v>781.5475701470004</v>
       </c>
       <c r="M31" t="n">
-        <v>1729.254258538669</v>
+        <v>1367.916118802844</v>
       </c>
       <c r="N31" t="n">
-        <v>1853.121905889333</v>
+        <v>1934.042569311152</v>
       </c>
       <c r="O31" t="n">
-        <v>2387.202976003139</v>
+        <v>2468.123639424959</v>
       </c>
       <c r="P31" t="n">
-        <v>2832.60894799601</v>
+        <v>2913.529611417829</v>
       </c>
       <c r="Q31" t="n">
         <v>3011.571465534313</v>
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2069.381664190551</v>
+        <v>2093.900519989501</v>
       </c>
       <c r="C32" t="n">
-        <v>1631.239191373975</v>
+        <v>1655.758047172925</v>
       </c>
       <c r="D32" t="n">
-        <v>1195.329406548419</v>
+        <v>1623.196836139212</v>
       </c>
       <c r="E32" t="n">
-        <v>761.5546617067145</v>
+        <v>1189.422091297507</v>
       </c>
       <c r="F32" t="n">
-        <v>761.5546617067145</v>
+        <v>761.5546617067146</v>
       </c>
       <c r="G32" t="n">
         <v>361.9979953786982</v>
       </c>
       <c r="H32" t="n">
-        <v>91.7236723771172</v>
+        <v>91.72367237711723</v>
       </c>
       <c r="I32" t="n">
         <v>160.8841604942899</v>
       </c>
       <c r="J32" t="n">
-        <v>314.0410375652105</v>
+        <v>352.1120580544135</v>
       </c>
       <c r="K32" t="n">
-        <v>1377.933786428028</v>
+        <v>1416.004806917231</v>
       </c>
       <c r="L32" t="n">
-        <v>1662.701501750719</v>
+        <v>1700.772522239923</v>
       </c>
       <c r="M32" t="n">
-        <v>1979.560453911774</v>
+        <v>2017.631474400977</v>
       </c>
       <c r="N32" t="n">
-        <v>2301.54651518463</v>
+        <v>2339.617535673833</v>
       </c>
       <c r="O32" t="n">
-        <v>3436.626960851455</v>
+        <v>2643.659842884049</v>
       </c>
       <c r="P32" t="n">
-        <v>3696.120035787989</v>
+        <v>3731.46279265398</v>
       </c>
       <c r="Q32" t="n">
-        <v>4437.487314169652</v>
+        <v>4472.830071035643</v>
       </c>
       <c r="R32" t="n">
-        <v>4586.18361885586</v>
+        <v>4586.183618855861</v>
       </c>
       <c r="S32" t="n">
-        <v>4544.487293587402</v>
+        <v>4586.183618855861</v>
       </c>
       <c r="T32" t="n">
-        <v>4349.657235930721</v>
+        <v>4374.176091729671</v>
       </c>
       <c r="U32" t="n">
-        <v>4090.582226451636</v>
+        <v>4115.101082250585</v>
       </c>
       <c r="V32" t="n">
-        <v>3727.965276385462</v>
+        <v>3752.484132184411</v>
       </c>
       <c r="W32" t="n">
-        <v>3323.109821796495</v>
+        <v>3347.628677595445</v>
       </c>
       <c r="X32" t="n">
-        <v>2903.967358375806</v>
+        <v>2928.486214174756</v>
       </c>
       <c r="Y32" t="n">
-        <v>2495.681234675459</v>
+        <v>2520.200090474409</v>
       </c>
     </row>
     <row r="33">
@@ -6770,37 +6770,37 @@
         <v>208.3452140280996</v>
       </c>
       <c r="G33" t="n">
-        <v>123.9452344427565</v>
+        <v>123.9452344427566</v>
       </c>
       <c r="H33" t="n">
-        <v>91.7236723771172</v>
+        <v>91.72367237711723</v>
       </c>
       <c r="I33" t="n">
         <v>124.9658902879513</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5553905416684</v>
+        <v>216.1850770417446</v>
       </c>
       <c r="K33" t="n">
-        <v>419.4635098822007</v>
+        <v>372.0931963822769</v>
       </c>
       <c r="L33" t="n">
-        <v>629.1012165924989</v>
+        <v>581.7309030925751</v>
       </c>
       <c r="M33" t="n">
-        <v>873.7385323515924</v>
+        <v>826.3682188516688</v>
       </c>
       <c r="N33" t="n">
-        <v>1124.850669917777</v>
+        <v>1077.480356417853</v>
       </c>
       <c r="O33" t="n">
-        <v>1354.569217052684</v>
+        <v>1307.19890355276</v>
       </c>
       <c r="P33" t="n">
-        <v>1538.938603473307</v>
+        <v>1491.568289973384</v>
       </c>
       <c r="Q33" t="n">
-        <v>1662.184655712404</v>
+        <v>1614.814342212481</v>
       </c>
       <c r="R33" t="n">
         <v>1722.130749565368</v>
@@ -6846,7 +6846,7 @@
         <v>629.5788267834923</v>
       </c>
       <c r="F34" t="n">
-        <v>452.8717727452485</v>
+        <v>452.8717727452486</v>
       </c>
       <c r="G34" t="n">
         <v>288.1063810275614</v>
@@ -6855,28 +6855,28 @@
         <v>155.54705967105</v>
       </c>
       <c r="I34" t="n">
-        <v>91.7236723771172</v>
+        <v>91.72367237711723</v>
       </c>
       <c r="J34" t="n">
-        <v>148.9516586805755</v>
+        <v>235.5313438452654</v>
       </c>
       <c r="K34" t="n">
-        <v>517.7532744910318</v>
+        <v>452.5705460238144</v>
       </c>
       <c r="L34" t="n">
-        <v>811.8091771449089</v>
+        <v>991.1232962509187</v>
       </c>
       <c r="M34" t="n">
-        <v>1398.177725800752</v>
+        <v>1577.491844906762</v>
       </c>
       <c r="N34" t="n">
-        <v>1964.30417630906</v>
+        <v>2143.61829541507</v>
       </c>
       <c r="O34" t="n">
-        <v>2498.385246422867</v>
+        <v>2677.699365528877</v>
       </c>
       <c r="P34" t="n">
-        <v>2943.791218415738</v>
+        <v>2775.598443551406</v>
       </c>
       <c r="Q34" t="n">
         <v>3011.571465534313</v>
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1866.792238943022</v>
+        <v>909.6390506049063</v>
       </c>
       <c r="C35" t="n">
-        <v>1577.334999950653</v>
+        <v>909.6390506049063</v>
       </c>
       <c r="D35" t="n">
-        <v>1577.334999950653</v>
+        <v>473.7292657793508</v>
       </c>
       <c r="E35" t="n">
-        <v>1143.560255108948</v>
+        <v>473.7292657793508</v>
       </c>
       <c r="F35" t="n">
-        <v>715.6928255181558</v>
+        <v>45.86183618855861</v>
       </c>
       <c r="G35" t="n">
-        <v>316.1361591901396</v>
+        <v>45.86183618855861</v>
       </c>
       <c r="H35" t="n">
-        <v>45.8618361885586</v>
+        <v>45.86183618855861</v>
       </c>
       <c r="I35" t="n">
-        <v>115.0223243057313</v>
+        <v>115.0223243057312</v>
       </c>
       <c r="J35" t="n">
-        <v>268.1792013766519</v>
+        <v>268.1792013766522</v>
       </c>
       <c r="K35" t="n">
-        <v>497.7216582812911</v>
+        <v>497.7216582812914</v>
       </c>
       <c r="L35" t="n">
-        <v>782.4893736039828</v>
+        <v>782.4893736039832</v>
       </c>
       <c r="M35" t="n">
-        <v>1099.348325765037</v>
+        <v>1099.348325765038</v>
       </c>
       <c r="N35" t="n">
-        <v>1421.334387037893</v>
+        <v>1421.334387037894</v>
       </c>
       <c r="O35" t="n">
-        <v>1725.376694248109</v>
+        <v>1725.37669424811</v>
       </c>
       <c r="P35" t="n">
         <v>1984.869769184644</v>
       </c>
       <c r="Q35" t="n">
-        <v>2179.738261607712</v>
+        <v>2179.738261607713</v>
       </c>
       <c r="R35" t="n">
         <v>2293.09180942793</v>
       </c>
       <c r="S35" t="n">
-        <v>2293.09180942793</v>
+        <v>2251.395484159472</v>
       </c>
       <c r="T35" t="n">
-        <v>2293.09180942793</v>
+        <v>2039.387957033282</v>
       </c>
       <c r="U35" t="n">
-        <v>2293.09180942793</v>
+        <v>1780.312947554197</v>
       </c>
       <c r="V35" t="n">
-        <v>2293.09180942793</v>
+        <v>1740.794075678781</v>
       </c>
       <c r="W35" t="n">
-        <v>2293.09180942793</v>
+        <v>1335.938621089814</v>
       </c>
       <c r="X35" t="n">
-        <v>2293.09180942793</v>
+        <v>1335.938621089814</v>
       </c>
       <c r="Y35" t="n">
-        <v>2293.09180942793</v>
+        <v>1335.938621089814</v>
       </c>
     </row>
     <row r="36">
@@ -6992,52 +6992,52 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>541.5343809132301</v>
+        <v>541.5343809132302</v>
       </c>
       <c r="C36" t="n">
         <v>435.0779197498724</v>
       </c>
       <c r="D36" t="n">
-        <v>339.9876308964256</v>
+        <v>339.9876308964257</v>
       </c>
       <c r="E36" t="n">
-        <v>245.8672162233793</v>
+        <v>245.8672162233794</v>
       </c>
       <c r="F36" t="n">
         <v>162.483377839541</v>
       </c>
       <c r="G36" t="n">
-        <v>78.08339825419795</v>
+        <v>78.08339825419796</v>
       </c>
       <c r="H36" t="n">
-        <v>45.8618361885586</v>
+        <v>45.86183618855861</v>
       </c>
       <c r="I36" t="n">
-        <v>79.10405409939268</v>
+        <v>105.1677272598503</v>
       </c>
       <c r="J36" t="n">
-        <v>170.3232408531859</v>
+        <v>196.3869140136435</v>
       </c>
       <c r="K36" t="n">
-        <v>373.6016736936421</v>
+        <v>352.2950333541758</v>
       </c>
       <c r="L36" t="n">
-        <v>583.2393804039403</v>
+        <v>561.9327400644742</v>
       </c>
       <c r="M36" t="n">
-        <v>827.8766961630339</v>
+        <v>806.5700558235677</v>
       </c>
       <c r="N36" t="n">
-        <v>1078.988833729219</v>
+        <v>1057.682193389752</v>
       </c>
       <c r="O36" t="n">
-        <v>1308.707380864125</v>
+        <v>1287.400740524659</v>
       </c>
       <c r="P36" t="n">
-        <v>1493.076767284748</v>
+        <v>1471.770126945283</v>
       </c>
       <c r="Q36" t="n">
-        <v>1616.322819523846</v>
+        <v>1595.01617918438</v>
       </c>
       <c r="R36" t="n">
         <v>1676.26891337681</v>
@@ -7058,10 +7058,10 @@
         <v>944.1914969748925</v>
       </c>
       <c r="X36" t="n">
-        <v>789.3240612137724</v>
+        <v>789.3240612137726</v>
       </c>
       <c r="Y36" t="n">
-        <v>662.8382819929932</v>
+        <v>662.8382819929933</v>
       </c>
     </row>
     <row r="37">
@@ -7071,49 +7071,49 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1091.914698659449</v>
+        <v>649.2845064526866</v>
       </c>
       <c r="C37" t="n">
-        <v>919.3529871426737</v>
+        <v>476.7227949359116</v>
       </c>
       <c r="D37" t="n">
-        <v>753.4749943441964</v>
+        <v>476.7227949359116</v>
       </c>
       <c r="E37" t="n">
-        <v>583.7169905949337</v>
+        <v>476.7227949359116</v>
       </c>
       <c r="F37" t="n">
-        <v>407.0099365566899</v>
+        <v>300.0157408976678</v>
       </c>
       <c r="G37" t="n">
-        <v>242.2445448390028</v>
+        <v>135.2503491799807</v>
       </c>
       <c r="H37" t="n">
         <v>109.6852234824914</v>
       </c>
       <c r="I37" t="n">
-        <v>45.8618361885586</v>
+        <v>45.86183618855861</v>
       </c>
       <c r="J37" t="n">
-        <v>189.6695076567067</v>
+        <v>103.0898224920169</v>
       </c>
       <c r="K37" t="n">
-        <v>558.4711234671629</v>
+        <v>197.1329837313375</v>
       </c>
       <c r="L37" t="n">
-        <v>678.8139919263061</v>
+        <v>735.6857339584418</v>
       </c>
       <c r="M37" t="n">
-        <v>1246.354214759719</v>
+        <v>1303.225956791855</v>
       </c>
       <c r="N37" t="n">
-        <v>1370.221862110383</v>
+        <v>1650.089642472934</v>
       </c>
       <c r="O37" t="n">
-        <v>1904.302932224189</v>
+        <v>1764.501463360959</v>
       </c>
       <c r="P37" t="n">
-        <v>2041.714660489497</v>
+        <v>2209.907435353829</v>
       </c>
       <c r="Q37" t="n">
         <v>2277.687682472404</v>
@@ -7125,22 +7125,22 @@
         <v>2148.243333477583</v>
       </c>
       <c r="T37" t="n">
-        <v>2148.243333477583</v>
+        <v>1905.892660970112</v>
       </c>
       <c r="U37" t="n">
-        <v>1869.855380908315</v>
+        <v>1627.504708400844</v>
       </c>
       <c r="V37" t="n">
-        <v>1582.899872778745</v>
+        <v>1340.549200271274</v>
       </c>
       <c r="W37" t="n">
-        <v>1310.873468365037</v>
+        <v>1068.522795857566</v>
       </c>
       <c r="X37" t="n">
-        <v>1283.733317378436</v>
+        <v>1068.522795857566</v>
       </c>
       <c r="Y37" t="n">
-        <v>1283.733317378436</v>
+        <v>841.1031251716738</v>
       </c>
     </row>
     <row r="38">
@@ -7150,37 +7150,37 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1671.399849882671</v>
+        <v>715.6928255181558</v>
       </c>
       <c r="C38" t="n">
-        <v>1233.257377066094</v>
+        <v>715.6928255181558</v>
       </c>
       <c r="D38" t="n">
-        <v>797.3475922405387</v>
+        <v>715.6928255181558</v>
       </c>
       <c r="E38" t="n">
-        <v>363.5728473988339</v>
+        <v>715.6928255181558</v>
       </c>
       <c r="F38" t="n">
-        <v>45.8618361885586</v>
+        <v>715.6928255181558</v>
       </c>
       <c r="G38" t="n">
-        <v>45.8618361885586</v>
+        <v>316.1361591901396</v>
       </c>
       <c r="H38" t="n">
         <v>45.8618361885586</v>
       </c>
       <c r="I38" t="n">
-        <v>115.0223243057313</v>
+        <v>115.0223243057311</v>
       </c>
       <c r="J38" t="n">
-        <v>268.1792013766519</v>
+        <v>268.1792013766517</v>
       </c>
       <c r="K38" t="n">
-        <v>497.7216582812911</v>
+        <v>497.721658281291</v>
       </c>
       <c r="L38" t="n">
-        <v>782.4893736039828</v>
+        <v>782.4893736039826</v>
       </c>
       <c r="M38" t="n">
         <v>1099.348325765037</v>
@@ -7201,25 +7201,25 @@
         <v>2293.09180942793</v>
       </c>
       <c r="S38" t="n">
-        <v>2293.09180942793</v>
+        <v>2251.395484159472</v>
       </c>
       <c r="T38" t="n">
-        <v>2293.09180942793</v>
+        <v>2251.395484159472</v>
       </c>
       <c r="U38" t="n">
-        <v>2034.016799948844</v>
+        <v>1992.320474680386</v>
       </c>
       <c r="V38" t="n">
-        <v>1671.399849882671</v>
+        <v>1955.133974292377</v>
       </c>
       <c r="W38" t="n">
-        <v>1671.399849882671</v>
+        <v>1550.27851970341</v>
       </c>
       <c r="X38" t="n">
-        <v>1671.399849882671</v>
+        <v>1550.27851970341</v>
       </c>
       <c r="Y38" t="n">
-        <v>1671.399849882671</v>
+        <v>1141.992396003064</v>
       </c>
     </row>
     <row r="39">
@@ -7250,31 +7250,31 @@
         <v>45.8618361885586</v>
       </c>
       <c r="I39" t="n">
-        <v>79.10405409939268</v>
+        <v>105.1677272598503</v>
       </c>
       <c r="J39" t="n">
-        <v>217.6935543531099</v>
+        <v>196.3869140136435</v>
       </c>
       <c r="K39" t="n">
-        <v>373.6016736936421</v>
+        <v>352.2950333541758</v>
       </c>
       <c r="L39" t="n">
-        <v>583.2393804039403</v>
+        <v>561.9327400644742</v>
       </c>
       <c r="M39" t="n">
-        <v>827.8766961630339</v>
+        <v>806.5700558235677</v>
       </c>
       <c r="N39" t="n">
-        <v>1078.988833729219</v>
+        <v>1057.682193389752</v>
       </c>
       <c r="O39" t="n">
-        <v>1308.707380864125</v>
+        <v>1287.400740524659</v>
       </c>
       <c r="P39" t="n">
-        <v>1493.076767284748</v>
+        <v>1471.770126945283</v>
       </c>
       <c r="Q39" t="n">
-        <v>1616.322819523846</v>
+        <v>1595.01617918438</v>
       </c>
       <c r="R39" t="n">
         <v>1676.26891337681</v>
@@ -7308,49 +7308,49 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>559.8959934612645</v>
+        <v>458.9539890375103</v>
       </c>
       <c r="C40" t="n">
-        <v>387.3342819444895</v>
+        <v>286.3922775207352</v>
       </c>
       <c r="D40" t="n">
-        <v>387.3342819444895</v>
+        <v>286.3922775207352</v>
       </c>
       <c r="E40" t="n">
-        <v>387.3342819444895</v>
+        <v>286.3922775207352</v>
       </c>
       <c r="F40" t="n">
-        <v>210.6272279062457</v>
+        <v>109.6852234824914</v>
       </c>
       <c r="G40" t="n">
-        <v>45.8618361885586</v>
+        <v>109.6852234824914</v>
       </c>
       <c r="H40" t="n">
-        <v>45.8618361885586</v>
+        <v>109.6852234824914</v>
       </c>
       <c r="I40" t="n">
         <v>45.8618361885586</v>
       </c>
       <c r="J40" t="n">
-        <v>189.6695076567067</v>
+        <v>103.0898224920169</v>
       </c>
       <c r="K40" t="n">
-        <v>558.4711234671629</v>
+        <v>471.8914383024731</v>
       </c>
       <c r="L40" t="n">
-        <v>1097.023873694267</v>
+        <v>979.6680644215579</v>
       </c>
       <c r="M40" t="n">
-        <v>1223.908555169197</v>
+        <v>1106.552745896488</v>
       </c>
       <c r="N40" t="n">
-        <v>1347.776202519861</v>
+        <v>1230.420393247152</v>
       </c>
       <c r="O40" t="n">
-        <v>1596.308688496626</v>
+        <v>1764.501463360958</v>
       </c>
       <c r="P40" t="n">
-        <v>2041.714660489497</v>
+        <v>2209.907435353829</v>
       </c>
       <c r="Q40" t="n">
         <v>2277.687682472404</v>
@@ -7359,25 +7359,25 @@
         <v>2293.09180942793</v>
       </c>
       <c r="S40" t="n">
-        <v>2293.09180942793</v>
+        <v>2203.304570728994</v>
       </c>
       <c r="T40" t="n">
-        <v>2050.741136920458</v>
+        <v>1960.953898221523</v>
       </c>
       <c r="U40" t="n">
-        <v>1783.507950076009</v>
+        <v>1682.565945652255</v>
       </c>
       <c r="V40" t="n">
-        <v>1496.552441946439</v>
+        <v>1395.610437522685</v>
       </c>
       <c r="W40" t="n">
-        <v>1224.526037532731</v>
+        <v>1123.584033108977</v>
       </c>
       <c r="X40" t="n">
-        <v>979.1342828661434</v>
+        <v>878.1922784423891</v>
       </c>
       <c r="Y40" t="n">
-        <v>751.7146121802516</v>
+        <v>650.7726077564973</v>
       </c>
     </row>
     <row r="41">
@@ -7387,34 +7387,34 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>934.870913648599</v>
+        <v>1051.106199056135</v>
       </c>
       <c r="C41" t="n">
-        <v>934.870913648599</v>
+        <v>1051.106199056135</v>
       </c>
       <c r="D41" t="n">
-        <v>498.9611288230435</v>
+        <v>1051.106199056135</v>
       </c>
       <c r="E41" t="n">
-        <v>65.18638398133862</v>
+        <v>1051.106199056135</v>
       </c>
       <c r="F41" t="n">
-        <v>45.8618361885586</v>
+        <v>715.6928255181559</v>
       </c>
       <c r="G41" t="n">
-        <v>45.8618361885586</v>
+        <v>316.1361591901397</v>
       </c>
       <c r="H41" t="n">
-        <v>45.8618361885586</v>
+        <v>45.86183618855861</v>
       </c>
       <c r="I41" t="n">
-        <v>115.0223243057315</v>
+        <v>115.0223243057314</v>
       </c>
       <c r="J41" t="n">
-        <v>268.1792013766522</v>
+        <v>268.1792013766521</v>
       </c>
       <c r="K41" t="n">
-        <v>497.7216582812914</v>
+        <v>497.7216582812913</v>
       </c>
       <c r="L41" t="n">
         <v>782.489373603983</v>
@@ -7426,37 +7426,37 @@
         <v>1421.334387037893</v>
       </c>
       <c r="O41" t="n">
-        <v>1725.376694248109</v>
+        <v>1725.37669424811</v>
       </c>
       <c r="P41" t="n">
         <v>1984.869769184644</v>
       </c>
       <c r="Q41" t="n">
-        <v>2179.738261607712</v>
+        <v>2179.738261607713</v>
       </c>
       <c r="R41" t="n">
         <v>2293.09180942793</v>
       </c>
       <c r="S41" t="n">
-        <v>2251.395484159472</v>
+        <v>2293.09180942793</v>
       </c>
       <c r="T41" t="n">
-        <v>2039.387957033282</v>
+        <v>2081.084282301741</v>
       </c>
       <c r="U41" t="n">
-        <v>1780.312947554196</v>
+        <v>1822.009272822655</v>
       </c>
       <c r="V41" t="n">
-        <v>1780.312947554196</v>
+        <v>1459.392322756481</v>
       </c>
       <c r="W41" t="n">
-        <v>1780.312947554196</v>
+        <v>1459.392322756481</v>
       </c>
       <c r="X41" t="n">
-        <v>1361.170484133507</v>
+        <v>1459.392322756481</v>
       </c>
       <c r="Y41" t="n">
-        <v>1361.170484133507</v>
+        <v>1051.106199056135</v>
       </c>
     </row>
     <row r="42">
@@ -7466,40 +7466,40 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>541.5343809132301</v>
+        <v>541.5343809132302</v>
       </c>
       <c r="C42" t="n">
         <v>435.0779197498724</v>
       </c>
       <c r="D42" t="n">
-        <v>339.9876308964256</v>
+        <v>339.9876308964257</v>
       </c>
       <c r="E42" t="n">
-        <v>245.8672162233793</v>
+        <v>245.8672162233794</v>
       </c>
       <c r="F42" t="n">
         <v>162.483377839541</v>
       </c>
       <c r="G42" t="n">
-        <v>78.08339825419795</v>
+        <v>78.08339825419796</v>
       </c>
       <c r="H42" t="n">
-        <v>45.8618361885586</v>
+        <v>45.86183618855861</v>
       </c>
       <c r="I42" t="n">
-        <v>79.10405409939268</v>
+        <v>79.1040540993927</v>
       </c>
       <c r="J42" t="n">
-        <v>170.3232408531859</v>
+        <v>170.323240853186</v>
       </c>
       <c r="K42" t="n">
-        <v>326.2313601937182</v>
+        <v>326.2313601937183</v>
       </c>
       <c r="L42" t="n">
-        <v>535.8690669040164</v>
+        <v>535.8690669040166</v>
       </c>
       <c r="M42" t="n">
-        <v>780.50638266311</v>
+        <v>780.5063826631101</v>
       </c>
       <c r="N42" t="n">
         <v>1031.618520229295</v>
@@ -7532,10 +7532,10 @@
         <v>944.1914969748925</v>
       </c>
       <c r="X42" t="n">
-        <v>789.3240612137724</v>
+        <v>789.3240612137726</v>
       </c>
       <c r="Y42" t="n">
-        <v>662.8382819929932</v>
+        <v>662.8382819929933</v>
       </c>
     </row>
     <row r="43">
@@ -7545,16 +7545,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>631.3124224719904</v>
+        <v>403.8927517860992</v>
       </c>
       <c r="C43" t="n">
-        <v>512.9445530120199</v>
+        <v>403.8927517860992</v>
       </c>
       <c r="D43" t="n">
-        <v>512.9445530120199</v>
+        <v>403.8927517860992</v>
       </c>
       <c r="E43" t="n">
-        <v>343.1865492627572</v>
+        <v>403.8927517860992</v>
       </c>
       <c r="F43" t="n">
         <v>343.1865492627572</v>
@@ -7563,31 +7563,31 @@
         <v>178.4211575450701</v>
       </c>
       <c r="H43" t="n">
-        <v>45.8618361885586</v>
+        <v>45.86183618855861</v>
       </c>
       <c r="I43" t="n">
-        <v>45.8618361885586</v>
+        <v>45.86183618855861</v>
       </c>
       <c r="J43" t="n">
-        <v>189.6695076567067</v>
+        <v>189.6695076567068</v>
       </c>
       <c r="K43" t="n">
         <v>558.4711234671629</v>
       </c>
       <c r="L43" t="n">
-        <v>979.6680644215579</v>
+        <v>1097.023873694267</v>
       </c>
       <c r="M43" t="n">
-        <v>1106.552745896488</v>
+        <v>1358.029220257937</v>
       </c>
       <c r="N43" t="n">
-        <v>1230.420393247152</v>
+        <v>1481.896867608601</v>
       </c>
       <c r="O43" t="n">
-        <v>1764.501463360958</v>
+        <v>1596.308688496626</v>
       </c>
       <c r="P43" t="n">
-        <v>2209.907435353829</v>
+        <v>2041.714660489497</v>
       </c>
       <c r="Q43" t="n">
         <v>2277.687682472404</v>
@@ -7599,22 +7599,22 @@
         <v>2148.243333477583</v>
       </c>
       <c r="T43" t="n">
-        <v>1905.892660970111</v>
+        <v>1905.892660970112</v>
       </c>
       <c r="U43" t="n">
-        <v>1627.504708400843</v>
+        <v>1627.504708400844</v>
       </c>
       <c r="V43" t="n">
         <v>1340.549200271274</v>
       </c>
       <c r="W43" t="n">
-        <v>1068.522795857565</v>
+        <v>1068.522795857566</v>
       </c>
       <c r="X43" t="n">
-        <v>823.1310411909776</v>
+        <v>823.1310411909781</v>
       </c>
       <c r="Y43" t="n">
-        <v>823.1310411909776</v>
+        <v>595.7113705050863</v>
       </c>
     </row>
     <row r="44">
@@ -7624,37 +7624,37 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1347.781523421483</v>
+        <v>604.5544191987098</v>
       </c>
       <c r="C44" t="n">
-        <v>909.6390506049063</v>
+        <v>604.5544191987098</v>
       </c>
       <c r="D44" t="n">
-        <v>473.7292657793508</v>
+        <v>604.5544191987098</v>
       </c>
       <c r="E44" t="n">
-        <v>473.7292657793508</v>
+        <v>604.5544191987098</v>
       </c>
       <c r="F44" t="n">
-        <v>45.8618361885586</v>
+        <v>445.4185025165749</v>
       </c>
       <c r="G44" t="n">
-        <v>45.8618361885586</v>
+        <v>45.86183618855861</v>
       </c>
       <c r="H44" t="n">
-        <v>45.8618361885586</v>
+        <v>45.86183618855861</v>
       </c>
       <c r="I44" t="n">
-        <v>115.0223243057312</v>
+        <v>115.0223243057315</v>
       </c>
       <c r="J44" t="n">
-        <v>268.179201376652</v>
+        <v>268.1792013766522</v>
       </c>
       <c r="K44" t="n">
-        <v>497.7216582812911</v>
+        <v>497.7216582812914</v>
       </c>
       <c r="L44" t="n">
-        <v>782.4893736039828</v>
+        <v>782.489373603983</v>
       </c>
       <c r="M44" t="n">
         <v>1099.348325765037</v>
@@ -7681,19 +7681,19 @@
         <v>2039.387957033282</v>
       </c>
       <c r="U44" t="n">
-        <v>1780.312947554196</v>
+        <v>1780.312947554197</v>
       </c>
       <c r="V44" t="n">
-        <v>1780.312947554196</v>
+        <v>1417.695997488023</v>
       </c>
       <c r="W44" t="n">
-        <v>1780.312947554196</v>
+        <v>1012.840542899056</v>
       </c>
       <c r="X44" t="n">
-        <v>1756.067647121829</v>
+        <v>1012.840542899056</v>
       </c>
       <c r="Y44" t="n">
-        <v>1347.781523421483</v>
+        <v>604.5544191987098</v>
       </c>
     </row>
     <row r="45">
@@ -7703,49 +7703,49 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>541.5343809132301</v>
+        <v>541.5343809132302</v>
       </c>
       <c r="C45" t="n">
         <v>435.0779197498724</v>
       </c>
       <c r="D45" t="n">
-        <v>339.9876308964256</v>
+        <v>339.9876308964257</v>
       </c>
       <c r="E45" t="n">
-        <v>245.8672162233793</v>
+        <v>245.8672162233794</v>
       </c>
       <c r="F45" t="n">
         <v>162.483377839541</v>
       </c>
       <c r="G45" t="n">
-        <v>78.08339825419795</v>
+        <v>78.08339825419796</v>
       </c>
       <c r="H45" t="n">
-        <v>45.8618361885586</v>
+        <v>45.86183618855861</v>
       </c>
       <c r="I45" t="n">
         <v>105.1677272598503</v>
       </c>
       <c r="J45" t="n">
-        <v>196.3869140136435</v>
+        <v>217.6935543531096</v>
       </c>
       <c r="K45" t="n">
-        <v>352.2950333541758</v>
+        <v>373.6016736936418</v>
       </c>
       <c r="L45" t="n">
-        <v>561.932740064474</v>
+        <v>583.2393804039401</v>
       </c>
       <c r="M45" t="n">
-        <v>806.5700558235675</v>
+        <v>827.8766961630338</v>
       </c>
       <c r="N45" t="n">
-        <v>1057.682193389752</v>
+        <v>1078.988833729219</v>
       </c>
       <c r="O45" t="n">
-        <v>1287.400740524659</v>
+        <v>1308.707380864125</v>
       </c>
       <c r="P45" t="n">
-        <v>1471.770126945282</v>
+        <v>1493.076767284748</v>
       </c>
       <c r="Q45" t="n">
         <v>1616.322819523846</v>
@@ -7769,10 +7769,10 @@
         <v>944.1914969748925</v>
       </c>
       <c r="X45" t="n">
-        <v>789.3240612137724</v>
+        <v>789.3240612137726</v>
       </c>
       <c r="Y45" t="n">
-        <v>662.8382819929932</v>
+        <v>662.8382819929933</v>
       </c>
     </row>
     <row r="46">
@@ -7782,49 +7782,49 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>649.2845064526862</v>
+        <v>548.741227736446</v>
       </c>
       <c r="C46" t="n">
-        <v>476.7227949359111</v>
+        <v>376.179516219671</v>
       </c>
       <c r="D46" t="n">
-        <v>310.8448021374338</v>
+        <v>376.179516219671</v>
       </c>
       <c r="E46" t="n">
-        <v>310.8448021374338</v>
+        <v>206.4215124704082</v>
       </c>
       <c r="F46" t="n">
-        <v>134.13774809919</v>
+        <v>206.4215124704082</v>
       </c>
       <c r="G46" t="n">
-        <v>45.8618361885586</v>
+        <v>206.4215124704082</v>
       </c>
       <c r="H46" t="n">
-        <v>45.8618361885586</v>
+        <v>73.86219111389678</v>
       </c>
       <c r="I46" t="n">
-        <v>45.8618361885586</v>
+        <v>45.86183618855861</v>
       </c>
       <c r="J46" t="n">
-        <v>189.6695076567067</v>
+        <v>103.0898224920169</v>
       </c>
       <c r="K46" t="n">
-        <v>558.4711234671629</v>
+        <v>197.1329837313375</v>
       </c>
       <c r="L46" t="n">
-        <v>678.8139919263061</v>
+        <v>317.4758521904808</v>
       </c>
       <c r="M46" t="n">
-        <v>915.7704171002928</v>
+        <v>885.0160750238936</v>
       </c>
       <c r="N46" t="n">
-        <v>1481.896867608601</v>
+        <v>1451.142525532202</v>
       </c>
       <c r="O46" t="n">
-        <v>1596.308688496626</v>
+        <v>1985.223595646008</v>
       </c>
       <c r="P46" t="n">
-        <v>2041.714660489497</v>
+        <v>2209.907435353829</v>
       </c>
       <c r="Q46" t="n">
         <v>2277.687682472404</v>
@@ -7833,25 +7833,25 @@
         <v>2293.09180942793</v>
       </c>
       <c r="S46" t="n">
-        <v>2148.243333477583</v>
+        <v>2293.09180942793</v>
       </c>
       <c r="T46" t="n">
-        <v>1905.892660970111</v>
+        <v>2050.741136920459</v>
       </c>
       <c r="U46" t="n">
-        <v>1627.504708400843</v>
+        <v>1772.353184351191</v>
       </c>
       <c r="V46" t="n">
-        <v>1340.549200271274</v>
+        <v>1485.397676221621</v>
       </c>
       <c r="W46" t="n">
-        <v>1068.522795857565</v>
+        <v>1213.371271807913</v>
       </c>
       <c r="X46" t="n">
-        <v>1068.522795857565</v>
+        <v>967.979517141325</v>
       </c>
       <c r="Y46" t="n">
-        <v>841.1031251716734</v>
+        <v>740.5598464554332</v>
       </c>
     </row>
   </sheetData>
@@ -8765,10 +8765,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>47.84880151507409</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -8792,7 +8792,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>21.52185892875377</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8850,22 +8850,22 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>445.1066074328107</v>
+        <v>445.1066074328108</v>
       </c>
       <c r="N13" t="n">
-        <v>446.7260637956006</v>
+        <v>53.88272324066907</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P13" t="n">
-        <v>104.5482641167732</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q13" t="n">
         <v>169.8916917821538</v>
@@ -9014,7 +9014,7 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>21.521858928754</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -9023,7 +9023,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>21.52185892875332</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -9090,10 +9090,10 @@
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>422.4342240080415</v>
+        <v>128.0654158437292</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>445.1066074328108</v>
       </c>
       <c r="N16" t="n">
         <v>446.7260637956006</v>
@@ -9102,7 +9102,7 @@
         <v>423.9083325512944</v>
       </c>
       <c r="P16" t="n">
-        <v>150.7377992684978</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -9239,10 +9239,10 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>21.52185892875355</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -9263,7 +9263,7 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>47.84880151507468</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -9321,16 +9321,16 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M19" t="n">
-        <v>445.1066074328107</v>
+        <v>445.1066074328108</v>
       </c>
       <c r="N19" t="n">
         <v>0</v>
@@ -9339,10 +9339,10 @@
         <v>423.9083325512944</v>
       </c>
       <c r="P19" t="n">
-        <v>39.91176792199894</v>
+        <v>152.3572556312884</v>
       </c>
       <c r="Q19" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9476,10 +9476,10 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
-        <v>47.84880151507471</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -9503,7 +9503,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>21.52185892875332</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9579,7 +9579,7 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>128.0654158437292</v>
+        <v>128.0654158437296</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9637,28 +9637,28 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>38.45557625172023</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L23" t="n">
-        <v>858.9017478223573</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>821.3074589838075</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>589.7200590921902</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -9713,7 +9713,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -9728,7 +9728,7 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>47.84880151507468</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -9740,7 +9740,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>21.52185892875332</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9798,25 +9798,25 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L25" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M25" t="n">
-        <v>464.1251183645587</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>446.7260637956006</v>
+        <v>406.5387502386957</v>
       </c>
       <c r="O25" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P25" t="n">
-        <v>294.1301169732933</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -9874,13 +9874,13 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L26" t="n">
-        <v>270.7197578196021</v>
+        <v>38.45557625172023</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -9898,7 +9898,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R26" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9968,7 +9968,7 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>21.52185892875377</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -9977,7 +9977,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>21.52185892875332</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10032,19 +10032,19 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>277.5337924960966</v>
+        <v>30.56727979586708</v>
       </c>
       <c r="L28" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N28" t="n">
-        <v>406.5387502386957</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O28" t="n">
         <v>423.9083325512944</v>
@@ -10053,7 +10053,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q28" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10111,28 +10111,28 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>169.5381443796718</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>38.45557625172023</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>821.3074589838077</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>839.4324630874839</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -10187,10 +10187,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>21.52185892875349</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -10211,7 +10211,7 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>47.84880151507332</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -10269,10 +10269,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
         <v>422.4342240080415</v>
@@ -10281,7 +10281,7 @@
         <v>464.1251183645587</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O31" t="n">
         <v>423.9083325512944</v>
@@ -10290,7 +10290,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q31" t="n">
-        <v>112.3053236562905</v>
+        <v>30.56727979586731</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10348,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>38.45557625172023</v>
       </c>
       <c r="K32" t="n">
         <v>842.7780726850283</v>
@@ -10363,16 +10363,16 @@
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>839.4324630874839</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q32" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R32" t="n">
-        <v>35.69975441009046</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10427,7 +10427,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>47.84880151507468</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -10451,7 +10451,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>47.84880151507423</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10506,13 +10506,13 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K34" t="n">
-        <v>277.5337924960966</v>
+        <v>124.2384251911398</v>
       </c>
       <c r="L34" t="n">
-        <v>175.467711307812</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M34" t="n">
         <v>464.1251183645587</v>
@@ -10524,10 +10524,10 @@
         <v>423.9083325512944</v>
       </c>
       <c r="P34" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10661,13 +10661,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>47.84880151507474</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10688,7 +10688,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>21.52185892875332</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10743,28 +10743,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M37" t="n">
-        <v>445.1066074328107</v>
+        <v>445.1066074328108</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>225.2485235660758</v>
       </c>
       <c r="O37" t="n">
-        <v>423.9083325512944</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>39.91176792199894</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q37" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10898,10 +10898,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
-        <v>47.84880151507471</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -10925,7 +10925,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>21.52185892875332</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -10980,13 +10980,13 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L40" t="n">
-        <v>422.4342240080415</v>
+        <v>391.3472299595369</v>
       </c>
       <c r="M40" t="n">
         <v>0</v>
@@ -10995,13 +10995,13 @@
         <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>135.4754192815556</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P40" t="n">
         <v>351.0170646165068</v>
       </c>
       <c r="Q40" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11162,7 +11162,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>47.84880151507468</v>
+        <v>47.84880151507423</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11223,22 +11223,22 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L43" t="n">
-        <v>303.8930025204563</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>135.4754192815556</v>
       </c>
       <c r="N43" t="n">
         <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>423.9083325512944</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
         <v>351.0170646165068</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11375,7 +11375,7 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>21.52185892875355</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -11396,7 +11396,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>21.52185892875377</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -11454,28 +11454,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
         <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>111.1835794939966</v>
+        <v>445.1066074328108</v>
       </c>
       <c r="N46" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P46" t="n">
-        <v>351.0170646165068</v>
+        <v>128.0654158437296</v>
       </c>
       <c r="Q46" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -23257,25 +23257,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
-        <v>61.61474754457254</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
-        <v>395.561099664736</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>267.5715797715652</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23308,25 +23308,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>41.27936201577356</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>209.8874518549281</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>256.4842593842947</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>121.6521440180581</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23415,13 +23415,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>59.51067628194959</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23430,13 +23430,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>163.1177378005102</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>63.18515342099344</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,7 +23466,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>143.3999911908438</v>
+        <v>69.71882368533987</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23475,7 +23475,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23494,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>433.7610480884109</v>
@@ -23503,7 +23503,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23512,7 +23512,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>123.7583456378732</v>
+        <v>267.5715797715652</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23545,7 +23545,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>41.27936201577356</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>209.8874518549281</v>
@@ -23557,13 +23557,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X14" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>404.2032624633431</v>
+        <v>308.4131064756002</v>
       </c>
     </row>
     <row r="15">
@@ -23655,25 +23655,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>136.1340677401418</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>11.04321806757036</v>
       </c>
       <c r="H16" t="n">
         <v>131.2337281429463</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>63.18515342099344</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23703,7 +23703,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>143.3999911908438</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23718,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23734,19 +23734,19 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C17" t="n">
-        <v>302.3426578608221</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G17" t="n">
-        <v>395.561099664736</v>
+        <v>108.357359437323</v>
       </c>
       <c r="H17" t="n">
         <v>267.5715797715652</v>
@@ -23782,19 +23782,19 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>41.27936201577356</v>
+        <v>41.27936201577355</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>209.8874518549281</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W17" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -23895,19 +23895,19 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>110.0847133476023</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>163.1177378005102</v>
       </c>
       <c r="H19" t="n">
-        <v>131.2337281429463</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23940,13 +23940,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>52.95134984267656</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>239.9271657823968</v>
       </c>
       <c r="U19" t="n">
-        <v>275.6040730435755</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="20">
@@ -23968,16 +23968,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C20" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E20" t="n">
-        <v>324.4026590109707</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F20" t="n">
         <v>423.5887552948843</v>
@@ -23986,7 +23986,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>267.5715797715652</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24019,7 +24019,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>41.27936201577356</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -24028,10 +24028,10 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>400.806900043077</v>
+        <v>110.0270222562517</v>
       </c>
       <c r="X20" t="n">
         <v>414.9510387864824</v>
@@ -24132,22 +24132,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>147.563649472323</v>
+        <v>4.99778584852308</v>
       </c>
       <c r="H22" t="n">
         <v>131.2337281429463</v>
       </c>
       <c r="I22" t="n">
-        <v>63.18515342099344</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24183,13 +24183,13 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>275.6040730435755</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24223,7 +24223,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>267.5715797715652</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24262,13 +24262,13 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>173.0228702981333</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>39.78755002662047</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -24457,10 +24457,10 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>173.0228702981324</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>267.5715797715652</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24502,13 +24502,13 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>25.64341128321593</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -24685,7 +24685,7 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>3.753988389188748</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -24694,10 +24694,10 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>395.561099664736</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>189.4276361989956</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24730,10 +24730,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>41.27936201577356</v>
+        <v>41.27936201577355</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>209.8874518549281</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -24922,13 +24922,13 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>399.3150880539239</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -24967,10 +24967,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>41.27936201577355</v>
       </c>
       <c r="T32" t="n">
-        <v>17.00569477481415</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -25156,22 +25156,22 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>147.1983814859652</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D35" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>395.561099664736</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>267.5715797715652</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25204,19 +25204,19 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>41.27936201577356</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>209.8874518549281</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>256.4842593842947</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>358.9907805655117</v>
+        <v>319.8670974088502</v>
       </c>
       <c r="W35" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>414.9510387864824</v>
@@ -25317,10 +25317,10 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -25329,7 +25329,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>105.9242537024319</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -25365,7 +25365,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>239.9271657823968</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25377,10 +25377,10 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>216.0690876431869</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y37" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25390,25 +25390,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F38" t="n">
-        <v>109.0548541967118</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G38" t="n">
-        <v>395.561099664736</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>267.5715797715652</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -25441,7 +25441,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>41.27936201577356</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>209.8874518549281</v>
@@ -25450,16 +25450,16 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>322.1761451813827</v>
       </c>
       <c r="W38" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y38" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25563,13 +25563,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>163.1177378005102</v>
       </c>
       <c r="H40" t="n">
         <v>131.2337281429463</v>
       </c>
       <c r="I40" t="n">
-        <v>63.18515342099344</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,13 +25599,13 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>143.3999911908438</v>
+        <v>54.51062487889753</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>11.04321806757065</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25627,25 +25627,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C41" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F41" t="n">
-        <v>404.4574529800321</v>
+        <v>91.52951549228533</v>
       </c>
       <c r="G41" t="n">
-        <v>395.561099664736</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>267.5715797715652</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25678,7 +25678,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>41.27936201577355</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -25687,16 +25687,16 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y41" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25788,16 +25788,16 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>53.65190363623651</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D43" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F43" t="n">
-        <v>174.9399834978613</v>
+        <v>114.8408429997528</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25867,19 +25867,19 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E44" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>266.0441977795708</v>
       </c>
       <c r="G44" t="n">
-        <v>395.561099664736</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>267.5715797715652</v>
@@ -25924,13 +25924,13 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>390.9481913584393</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26028,22 +26028,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E46" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
-        <v>75.72458500898514</v>
+        <v>163.1177378005102</v>
       </c>
       <c r="H46" t="n">
-        <v>131.2337281429463</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>63.18515342099344</v>
+        <v>35.46480204490865</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,7 +26073,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>143.3999911908438</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26088,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>291546.1577584752</v>
+        <v>291546.1577584754</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>291546.1577584753</v>
+        <v>291546.1577584754</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>544586.7345963396</v>
+        <v>544586.7345963398</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>544586.7345963396</v>
+        <v>544586.7345963398</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>544586.7345963395</v>
+        <v>544586.7345963396</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>291546.1577584753</v>
+        <v>291546.1577584754</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>291546.1577584754</v>
+        <v>291546.1577584753</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>291546.1577584753</v>
+        <v>291546.1577584754</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>291546.1577584753</v>
+        <v>291546.1577584754</v>
       </c>
     </row>
   </sheetData>
@@ -26313,10 +26313,10 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>444876.937956323</v>
+      </c>
+      <c r="C2" t="n">
         <v>444876.9379563229</v>
-      </c>
-      <c r="C2" t="n">
-        <v>444876.937956323</v>
       </c>
       <c r="D2" t="n">
         <v>444876.9379563229</v>
@@ -26325,25 +26325,25 @@
         <v>261492.2059865951</v>
       </c>
       <c r="F2" t="n">
-        <v>261492.205986595</v>
+        <v>261492.2059865951</v>
       </c>
       <c r="G2" t="n">
-        <v>261492.2059865951</v>
+        <v>261492.2059865952</v>
       </c>
       <c r="H2" t="n">
-        <v>261492.2059865951</v>
+        <v>261492.2059865952</v>
       </c>
       <c r="I2" t="n">
         <v>425914.6014151316</v>
       </c>
       <c r="J2" t="n">
+        <v>425914.6014151316</v>
+      </c>
+      <c r="K2" t="n">
         <v>425914.6014151317</v>
       </c>
-      <c r="K2" t="n">
+      <c r="L2" t="n">
         <v>425914.6014151316</v>
-      </c>
-      <c r="L2" t="n">
-        <v>425914.6014151317</v>
       </c>
       <c r="M2" t="n">
         <v>261492.2059865952</v>
@@ -26352,10 +26352,10 @@
         <v>261492.2059865951</v>
       </c>
       <c r="O2" t="n">
-        <v>261492.205986595</v>
+        <v>261492.2059865951</v>
       </c>
       <c r="P2" t="n">
-        <v>261492.2059865952</v>
+        <v>261492.2059865951</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>535437.5717334305</v>
+        <v>535437.5717334306</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26386,7 +26386,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>152445.3167637211</v>
+        <v>152445.3167637212</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26417,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>298730.7163118328</v>
+        <v>298730.7163118329</v>
       </c>
       <c r="C4" t="n">
-        <v>298730.7163118328</v>
+        <v>298730.7163118329</v>
       </c>
       <c r="D4" t="n">
-        <v>298730.7163118328</v>
+        <v>298730.7163118329</v>
       </c>
       <c r="E4" t="n">
-        <v>15129.54561314182</v>
+        <v>15129.54561314181</v>
       </c>
       <c r="F4" t="n">
         <v>15129.54561314182</v>
       </c>
       <c r="G4" t="n">
-        <v>15129.54561314183</v>
+        <v>15129.54561314182</v>
       </c>
       <c r="H4" t="n">
-        <v>15129.54561314183</v>
+        <v>15129.54561314182</v>
       </c>
       <c r="I4" t="n">
-        <v>94371.86994326099</v>
+        <v>94371.869943261</v>
       </c>
       <c r="J4" t="n">
         <v>94371.869943261</v>
       </c>
       <c r="K4" t="n">
-        <v>94371.86994326097</v>
+        <v>94371.869943261</v>
       </c>
       <c r="L4" t="n">
-        <v>94371.86994326097</v>
+        <v>94371.869943261</v>
       </c>
       <c r="M4" t="n">
-        <v>15129.54561314183</v>
+        <v>15129.54561314182</v>
       </c>
       <c r="N4" t="n">
-        <v>15129.54561314183</v>
+        <v>15129.54561314181</v>
       </c>
       <c r="O4" t="n">
         <v>15129.54561314182</v>
       </c>
       <c r="P4" t="n">
-        <v>15129.54561314182</v>
+        <v>15129.54561314183</v>
       </c>
     </row>
     <row r="5">
@@ -26478,40 +26478,40 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>44739.33149357094</v>
+        <v>44739.33149357095</v>
       </c>
       <c r="F5" t="n">
-        <v>44739.33149357093</v>
+        <v>44739.33149357095</v>
       </c>
       <c r="G5" t="n">
-        <v>44739.33149357094</v>
+        <v>44739.33149357095</v>
       </c>
       <c r="H5" t="n">
-        <v>44739.33149357094</v>
+        <v>44739.33149357095</v>
       </c>
       <c r="I5" t="n">
-        <v>79594.32699687548</v>
+        <v>79594.32699687549</v>
       </c>
       <c r="J5" t="n">
-        <v>79594.32699687548</v>
+        <v>79594.32699687549</v>
       </c>
       <c r="K5" t="n">
-        <v>79594.32699687548</v>
+        <v>79594.32699687549</v>
       </c>
       <c r="L5" t="n">
-        <v>79594.32699687548</v>
+        <v>79594.32699687549</v>
       </c>
       <c r="M5" t="n">
-        <v>44739.33149357094</v>
+        <v>44739.33149357095</v>
       </c>
       <c r="N5" t="n">
         <v>44739.33149357094</v>
       </c>
       <c r="O5" t="n">
-        <v>44739.33149357094</v>
+        <v>44739.33149357095</v>
       </c>
       <c r="P5" t="n">
-        <v>44739.33149357094</v>
+        <v>44739.33149357095</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>112518.6216444901</v>
+        <v>112486.7149269885</v>
       </c>
       <c r="C6" t="n">
-        <v>112518.6216444902</v>
+        <v>112486.7149269885</v>
       </c>
       <c r="D6" t="n">
-        <v>112518.6216444901</v>
+        <v>112486.7149269885</v>
       </c>
       <c r="E6" t="n">
-        <v>-333814.2428535482</v>
+        <v>-334385.5164297842</v>
       </c>
       <c r="F6" t="n">
-        <v>201623.3288798823</v>
+        <v>201052.0553036464</v>
       </c>
       <c r="G6" t="n">
-        <v>201623.3288798824</v>
+        <v>201052.0553036464</v>
       </c>
       <c r="H6" t="n">
-        <v>201623.3288798823</v>
+        <v>201052.0553036464</v>
       </c>
       <c r="I6" t="n">
-        <v>99503.08771127398</v>
+        <v>99415.40941571012</v>
       </c>
       <c r="J6" t="n">
-        <v>251948.4044749952</v>
+        <v>251860.7261794312</v>
       </c>
       <c r="K6" t="n">
-        <v>251948.4044749952</v>
+        <v>251860.7261794313</v>
       </c>
       <c r="L6" t="n">
-        <v>251948.4044749953</v>
+        <v>251860.7261794313</v>
       </c>
       <c r="M6" t="n">
-        <v>201623.3288798824</v>
+        <v>201052.0553036464</v>
       </c>
       <c r="N6" t="n">
-        <v>201623.3288798824</v>
+        <v>201052.0553036463</v>
       </c>
       <c r="O6" t="n">
-        <v>201623.3288798823</v>
+        <v>201052.0553036463</v>
       </c>
       <c r="P6" t="n">
-        <v>201623.3288798824</v>
+        <v>201052.0553036463</v>
       </c>
     </row>
   </sheetData>
@@ -26746,10 +26746,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>453.4099078103857</v>
+        <v>453.4099078103858</v>
       </c>
       <c r="F3" t="n">
-        <v>453.4099078103856</v>
+        <v>453.4099078103858</v>
       </c>
       <c r="G3" t="n">
         <v>453.4099078103857</v>
@@ -26798,16 +26798,16 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>573.2729523569825</v>
+        <v>573.2729523569826</v>
       </c>
       <c r="F4" t="n">
-        <v>573.2729523569824</v>
+        <v>573.2729523569826</v>
       </c>
       <c r="G4" t="n">
-        <v>573.2729523569825</v>
+        <v>573.2729523569826</v>
       </c>
       <c r="H4" t="n">
-        <v>573.2729523569825</v>
+        <v>573.2729523569826</v>
       </c>
       <c r="I4" t="n">
         <v>1146.545904713965</v>
@@ -26822,16 +26822,16 @@
         <v>1146.545904713965</v>
       </c>
       <c r="M4" t="n">
-        <v>573.2729523569825</v>
+        <v>573.2729523569826</v>
       </c>
       <c r="N4" t="n">
         <v>573.2729523569825</v>
       </c>
       <c r="O4" t="n">
-        <v>573.2729523569825</v>
+        <v>573.2729523569826</v>
       </c>
       <c r="P4" t="n">
-        <v>573.2729523569825</v>
+        <v>573.2729523569826</v>
       </c>
     </row>
   </sheetData>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>453.4099078103857</v>
+        <v>453.4099078103858</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>573.2729523569825</v>
+        <v>573.2729523569826</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27032,7 +27032,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>573.2729523569825</v>
+        <v>573.2729523569826</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>573.2729523569825</v>
+        <v>573.2729523569826</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.822753398232705</v>
+        <v>1.822753398232706</v>
       </c>
       <c r="H11" t="n">
-        <v>18.66727323965069</v>
+        <v>18.6672732396507</v>
       </c>
       <c r="I11" t="n">
-        <v>70.27170038536642</v>
+        <v>70.27170038536644</v>
       </c>
       <c r="J11" t="n">
         <v>154.7039162332532</v>
       </c>
       <c r="K11" t="n">
-        <v>231.8610675804436</v>
+        <v>231.8610675804437</v>
       </c>
       <c r="L11" t="n">
-        <v>287.6441568916078</v>
+        <v>287.6441568916079</v>
       </c>
       <c r="M11" t="n">
-        <v>320.0595476374287</v>
+        <v>320.0595476374288</v>
       </c>
       <c r="N11" t="n">
-        <v>325.2384457301574</v>
+        <v>325.2384457301575</v>
       </c>
       <c r="O11" t="n">
-        <v>307.1134416264809</v>
+        <v>307.113441626481</v>
       </c>
       <c r="P11" t="n">
-        <v>262.114217107611</v>
+        <v>262.1142171076111</v>
       </c>
       <c r="Q11" t="n">
-        <v>196.8368610334021</v>
+        <v>196.8368610334022</v>
       </c>
       <c r="R11" t="n">
-        <v>114.4985331517352</v>
+        <v>114.4985331517353</v>
       </c>
       <c r="S11" t="n">
-        <v>41.5359930622278</v>
+        <v>41.53599306222782</v>
       </c>
       <c r="T11" t="n">
-        <v>7.979103000763669</v>
+        <v>7.979103000763673</v>
       </c>
       <c r="U11" t="n">
-        <v>0.1458202718586163</v>
+        <v>0.1458202718586164</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,16 +31831,16 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.9752590469883767</v>
+        <v>0.9752590469883772</v>
       </c>
       <c r="H12" t="n">
-        <v>9.418949216966693</v>
+        <v>9.418949216966697</v>
       </c>
       <c r="I12" t="n">
-        <v>33.5779978897314</v>
+        <v>33.57799788973141</v>
       </c>
       <c r="J12" t="n">
-        <v>92.14059268059924</v>
+        <v>92.14059268059927</v>
       </c>
       <c r="K12" t="n">
         <v>157.4829488288205</v>
@@ -31852,28 +31852,28 @@
         <v>247.1083997566602</v>
       </c>
       <c r="N12" t="n">
-        <v>253.648623804227</v>
+        <v>253.6486238042271</v>
       </c>
       <c r="O12" t="n">
-        <v>232.0389364999056</v>
+        <v>232.0389364999057</v>
       </c>
       <c r="P12" t="n">
-        <v>186.2317034551752</v>
+        <v>186.2317034551753</v>
       </c>
       <c r="Q12" t="n">
-        <v>124.4909618576742</v>
+        <v>124.4909618576743</v>
       </c>
       <c r="R12" t="n">
-        <v>60.55160995248889</v>
+        <v>60.55160995248891</v>
       </c>
       <c r="S12" t="n">
-        <v>18.11500905261304</v>
+        <v>18.11500905261305</v>
       </c>
       <c r="T12" t="n">
-        <v>3.930978351676833</v>
+        <v>3.930978351676834</v>
       </c>
       <c r="U12" t="n">
-        <v>0.06416177940713008</v>
+        <v>0.0641617794071301</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,19 +31910,19 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.8176244239203675</v>
+        <v>0.8176244239203678</v>
       </c>
       <c r="H13" t="n">
-        <v>7.269424423582909</v>
+        <v>7.269424423582912</v>
       </c>
       <c r="I13" t="n">
-        <v>24.58819631207797</v>
+        <v>24.58819631207798</v>
       </c>
       <c r="J13" t="n">
-        <v>57.80604677116998</v>
+        <v>57.80604677117</v>
       </c>
       <c r="K13" t="n">
-        <v>94.99309216092995</v>
+        <v>94.99309216092999</v>
       </c>
       <c r="L13" t="n">
         <v>121.5584529890336</v>
@@ -31931,28 +31931,28 @@
         <v>128.1663449241718</v>
       </c>
       <c r="N13" t="n">
-        <v>125.1188357077414</v>
+        <v>125.1188357077415</v>
       </c>
       <c r="O13" t="n">
         <v>115.5674958464898</v>
       </c>
       <c r="P13" t="n">
-        <v>98.88795759851423</v>
+        <v>98.88795759851426</v>
       </c>
       <c r="Q13" t="n">
-        <v>68.46489607936823</v>
+        <v>68.46489607936826</v>
       </c>
       <c r="R13" t="n">
-        <v>36.76336727918306</v>
+        <v>36.76336727918307</v>
       </c>
       <c r="S13" t="n">
-        <v>14.24896382413949</v>
+        <v>14.2489638241395</v>
       </c>
       <c r="T13" t="n">
-        <v>3.493486174932479</v>
+        <v>3.49348617493248</v>
       </c>
       <c r="U13" t="n">
-        <v>0.04459769585020192</v>
+        <v>0.04459769585020194</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31992,46 +31992,46 @@
         <v>1.822753398232705</v>
       </c>
       <c r="H14" t="n">
-        <v>18.66727323965069</v>
+        <v>18.6672732396507</v>
       </c>
       <c r="I14" t="n">
-        <v>70.27170038536642</v>
+        <v>70.27170038536644</v>
       </c>
       <c r="J14" t="n">
         <v>154.7039162332532</v>
       </c>
       <c r="K14" t="n">
-        <v>231.8610675804436</v>
+        <v>231.8610675804437</v>
       </c>
       <c r="L14" t="n">
-        <v>287.6441568916078</v>
+        <v>287.6441568916079</v>
       </c>
       <c r="M14" t="n">
-        <v>320.0595476374286</v>
+        <v>320.0595476374288</v>
       </c>
       <c r="N14" t="n">
-        <v>325.2384457301573</v>
+        <v>325.2384457301575</v>
       </c>
       <c r="O14" t="n">
-        <v>307.1134416264808</v>
+        <v>307.1134416264809</v>
       </c>
       <c r="P14" t="n">
-        <v>262.1142171076109</v>
+        <v>262.114217107611</v>
       </c>
       <c r="Q14" t="n">
-        <v>196.8368610334021</v>
+        <v>196.8368610334022</v>
       </c>
       <c r="R14" t="n">
-        <v>114.4985331517352</v>
+        <v>114.4985331517353</v>
       </c>
       <c r="S14" t="n">
-        <v>41.5359930622278</v>
+        <v>41.53599306222782</v>
       </c>
       <c r="T14" t="n">
-        <v>7.979103000763669</v>
+        <v>7.979103000763671</v>
       </c>
       <c r="U14" t="n">
-        <v>0.1458202718586163</v>
+        <v>0.1458202718586164</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.9752590469883766</v>
+        <v>0.9752590469883771</v>
       </c>
       <c r="H15" t="n">
-        <v>9.418949216966691</v>
+        <v>9.418949216966695</v>
       </c>
       <c r="I15" t="n">
-        <v>33.57799788973139</v>
+        <v>33.57799788973141</v>
       </c>
       <c r="J15" t="n">
-        <v>92.14059268059923</v>
+        <v>92.14059268059927</v>
       </c>
       <c r="K15" t="n">
         <v>157.4829488288205</v>
       </c>
       <c r="L15" t="n">
-        <v>211.7552593033315</v>
+        <v>211.7552593033316</v>
       </c>
       <c r="M15" t="n">
-        <v>247.1083997566601</v>
+        <v>247.1083997566602</v>
       </c>
       <c r="N15" t="n">
-        <v>253.648623804227</v>
+        <v>253.6486238042271</v>
       </c>
       <c r="O15" t="n">
         <v>232.0389364999056</v>
       </c>
       <c r="P15" t="n">
-        <v>186.2317034551752</v>
+        <v>186.2317034551753</v>
       </c>
       <c r="Q15" t="n">
         <v>124.4909618576742</v>
       </c>
       <c r="R15" t="n">
-        <v>60.55160995248888</v>
+        <v>60.5516099524889</v>
       </c>
       <c r="S15" t="n">
         <v>18.11500905261304</v>
       </c>
       <c r="T15" t="n">
-        <v>3.930978351676833</v>
+        <v>3.930978351676834</v>
       </c>
       <c r="U15" t="n">
-        <v>0.06416177940713007</v>
+        <v>0.0641617794071301</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,19 +32147,19 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.8176244239203674</v>
+        <v>0.8176244239203677</v>
       </c>
       <c r="H16" t="n">
-        <v>7.269424423582908</v>
+        <v>7.269424423582911</v>
       </c>
       <c r="I16" t="n">
-        <v>24.58819631207797</v>
+        <v>24.58819631207798</v>
       </c>
       <c r="J16" t="n">
-        <v>57.80604677116997</v>
+        <v>57.80604677117</v>
       </c>
       <c r="K16" t="n">
-        <v>94.99309216092993</v>
+        <v>94.99309216092998</v>
       </c>
       <c r="L16" t="n">
         <v>121.5584529890336</v>
@@ -32168,28 +32168,28 @@
         <v>128.1663449241718</v>
       </c>
       <c r="N16" t="n">
-        <v>125.1188357077414</v>
+        <v>125.1188357077415</v>
       </c>
       <c r="O16" t="n">
         <v>115.5674958464898</v>
       </c>
       <c r="P16" t="n">
-        <v>98.88795759851422</v>
+        <v>98.88795759851425</v>
       </c>
       <c r="Q16" t="n">
-        <v>68.46489607936823</v>
+        <v>68.46489607936826</v>
       </c>
       <c r="R16" t="n">
-        <v>36.76336727918306</v>
+        <v>36.76336727918307</v>
       </c>
       <c r="S16" t="n">
         <v>14.24896382413949</v>
       </c>
       <c r="T16" t="n">
-        <v>3.493486174932478</v>
+        <v>3.493486174932479</v>
       </c>
       <c r="U16" t="n">
-        <v>0.04459769585020191</v>
+        <v>0.04459769585020193</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32229,10 +32229,10 @@
         <v>1.822753398232705</v>
       </c>
       <c r="H17" t="n">
-        <v>18.66727323965069</v>
+        <v>18.6672732396507</v>
       </c>
       <c r="I17" t="n">
-        <v>70.27170038536642</v>
+        <v>70.27170038536643</v>
       </c>
       <c r="J17" t="n">
         <v>154.7039162332532</v>
@@ -32256,19 +32256,19 @@
         <v>262.114217107611</v>
       </c>
       <c r="Q17" t="n">
-        <v>196.8368610334021</v>
+        <v>196.8368610334022</v>
       </c>
       <c r="R17" t="n">
-        <v>114.4985331517352</v>
+        <v>114.4985331517353</v>
       </c>
       <c r="S17" t="n">
-        <v>41.5359930622278</v>
+        <v>41.53599306222781</v>
       </c>
       <c r="T17" t="n">
-        <v>7.979103000763669</v>
+        <v>7.97910300076367</v>
       </c>
       <c r="U17" t="n">
-        <v>0.1458202718586163</v>
+        <v>0.1458202718586164</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,16 +32305,16 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.9752590469883767</v>
+        <v>0.9752590469883768</v>
       </c>
       <c r="H18" t="n">
-        <v>9.418949216966693</v>
+        <v>9.418949216966695</v>
       </c>
       <c r="I18" t="n">
         <v>33.5779978897314</v>
       </c>
       <c r="J18" t="n">
-        <v>92.14059268059924</v>
+        <v>92.14059268059926</v>
       </c>
       <c r="K18" t="n">
         <v>157.4829488288205</v>
@@ -32338,13 +32338,13 @@
         <v>124.4909618576742</v>
       </c>
       <c r="R18" t="n">
-        <v>60.55160995248889</v>
+        <v>60.5516099524889</v>
       </c>
       <c r="S18" t="n">
         <v>18.11500905261304</v>
       </c>
       <c r="T18" t="n">
-        <v>3.930978351676833</v>
+        <v>3.930978351676834</v>
       </c>
       <c r="U18" t="n">
         <v>0.06416177940713008</v>
@@ -32384,19 +32384,19 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.8176244239203675</v>
+        <v>0.8176244239203676</v>
       </c>
       <c r="H19" t="n">
-        <v>7.269424423582909</v>
+        <v>7.26942442358291</v>
       </c>
       <c r="I19" t="n">
         <v>24.58819631207797</v>
       </c>
       <c r="J19" t="n">
-        <v>57.80604677116998</v>
+        <v>57.80604677116999</v>
       </c>
       <c r="K19" t="n">
-        <v>94.99309216092995</v>
+        <v>94.99309216092996</v>
       </c>
       <c r="L19" t="n">
         <v>121.5584529890336</v>
@@ -32411,10 +32411,10 @@
         <v>115.5674958464898</v>
       </c>
       <c r="P19" t="n">
-        <v>98.88795759851423</v>
+        <v>98.88795759851425</v>
       </c>
       <c r="Q19" t="n">
-        <v>68.46489607936823</v>
+        <v>68.46489607936824</v>
       </c>
       <c r="R19" t="n">
         <v>36.76336727918306</v>
@@ -32466,10 +32466,10 @@
         <v>1.822753398232705</v>
       </c>
       <c r="H20" t="n">
-        <v>18.66727323965069</v>
+        <v>18.6672732396507</v>
       </c>
       <c r="I20" t="n">
-        <v>70.27170038536642</v>
+        <v>70.27170038536643</v>
       </c>
       <c r="J20" t="n">
         <v>154.7039162332532</v>
@@ -32493,19 +32493,19 @@
         <v>262.114217107611</v>
       </c>
       <c r="Q20" t="n">
-        <v>196.8368610334021</v>
+        <v>196.8368610334022</v>
       </c>
       <c r="R20" t="n">
-        <v>114.4985331517352</v>
+        <v>114.4985331517353</v>
       </c>
       <c r="S20" t="n">
-        <v>41.5359930622278</v>
+        <v>41.53599306222781</v>
       </c>
       <c r="T20" t="n">
-        <v>7.979103000763669</v>
+        <v>7.97910300076367</v>
       </c>
       <c r="U20" t="n">
-        <v>0.1458202718586163</v>
+        <v>0.1458202718586164</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,16 +32542,16 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.9752590469883767</v>
+        <v>0.9752590469883768</v>
       </c>
       <c r="H21" t="n">
-        <v>9.418949216966693</v>
+        <v>9.418949216966695</v>
       </c>
       <c r="I21" t="n">
         <v>33.5779978897314</v>
       </c>
       <c r="J21" t="n">
-        <v>92.14059268059924</v>
+        <v>92.14059268059926</v>
       </c>
       <c r="K21" t="n">
         <v>157.4829488288205</v>
@@ -32575,13 +32575,13 @@
         <v>124.4909618576742</v>
       </c>
       <c r="R21" t="n">
-        <v>60.55160995248889</v>
+        <v>60.5516099524889</v>
       </c>
       <c r="S21" t="n">
         <v>18.11500905261304</v>
       </c>
       <c r="T21" t="n">
-        <v>3.930978351676833</v>
+        <v>3.930978351676834</v>
       </c>
       <c r="U21" t="n">
         <v>0.06416177940713008</v>
@@ -32621,19 +32621,19 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.8176244239203675</v>
+        <v>0.8176244239203676</v>
       </c>
       <c r="H22" t="n">
-        <v>7.269424423582909</v>
+        <v>7.26942442358291</v>
       </c>
       <c r="I22" t="n">
         <v>24.58819631207797</v>
       </c>
       <c r="J22" t="n">
-        <v>57.80604677116998</v>
+        <v>57.80604677116999</v>
       </c>
       <c r="K22" t="n">
-        <v>94.99309216092995</v>
+        <v>94.99309216092996</v>
       </c>
       <c r="L22" t="n">
         <v>121.5584529890336</v>
@@ -32648,10 +32648,10 @@
         <v>115.5674958464898</v>
       </c>
       <c r="P22" t="n">
-        <v>98.88795759851423</v>
+        <v>98.88795759851425</v>
       </c>
       <c r="Q22" t="n">
-        <v>68.46489607936823</v>
+        <v>68.46489607936824</v>
       </c>
       <c r="R22" t="n">
         <v>36.76336727918306</v>
@@ -32703,10 +32703,10 @@
         <v>1.822753398232705</v>
       </c>
       <c r="H23" t="n">
-        <v>18.66727323965069</v>
+        <v>18.6672732396507</v>
       </c>
       <c r="I23" t="n">
-        <v>70.27170038536642</v>
+        <v>70.27170038536643</v>
       </c>
       <c r="J23" t="n">
         <v>154.7039162332532</v>
@@ -32730,19 +32730,19 @@
         <v>262.114217107611</v>
       </c>
       <c r="Q23" t="n">
-        <v>196.8368610334021</v>
+        <v>196.8368610334022</v>
       </c>
       <c r="R23" t="n">
-        <v>114.4985331517352</v>
+        <v>114.4985331517353</v>
       </c>
       <c r="S23" t="n">
-        <v>41.5359930622278</v>
+        <v>41.53599306222781</v>
       </c>
       <c r="T23" t="n">
-        <v>7.979103000763669</v>
+        <v>7.97910300076367</v>
       </c>
       <c r="U23" t="n">
-        <v>0.1458202718586163</v>
+        <v>0.1458202718586164</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,16 +32779,16 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.9752590469883767</v>
+        <v>0.9752590469883768</v>
       </c>
       <c r="H24" t="n">
-        <v>9.418949216966693</v>
+        <v>9.418949216966695</v>
       </c>
       <c r="I24" t="n">
         <v>33.5779978897314</v>
       </c>
       <c r="J24" t="n">
-        <v>92.14059268059924</v>
+        <v>92.14059268059926</v>
       </c>
       <c r="K24" t="n">
         <v>157.4829488288205</v>
@@ -32812,13 +32812,13 @@
         <v>124.4909618576742</v>
       </c>
       <c r="R24" t="n">
-        <v>60.55160995248889</v>
+        <v>60.5516099524889</v>
       </c>
       <c r="S24" t="n">
         <v>18.11500905261304</v>
       </c>
       <c r="T24" t="n">
-        <v>3.930978351676833</v>
+        <v>3.930978351676834</v>
       </c>
       <c r="U24" t="n">
         <v>0.06416177940713008</v>
@@ -32858,19 +32858,19 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.8176244239203675</v>
+        <v>0.8176244239203676</v>
       </c>
       <c r="H25" t="n">
-        <v>7.269424423582909</v>
+        <v>7.26942442358291</v>
       </c>
       <c r="I25" t="n">
         <v>24.58819631207797</v>
       </c>
       <c r="J25" t="n">
-        <v>57.80604677116998</v>
+        <v>57.80604677116999</v>
       </c>
       <c r="K25" t="n">
-        <v>94.99309216092995</v>
+        <v>94.99309216092996</v>
       </c>
       <c r="L25" t="n">
         <v>121.5584529890336</v>
@@ -32885,10 +32885,10 @@
         <v>115.5674958464898</v>
       </c>
       <c r="P25" t="n">
-        <v>98.88795759851423</v>
+        <v>98.88795759851425</v>
       </c>
       <c r="Q25" t="n">
-        <v>68.46489607936823</v>
+        <v>68.46489607936824</v>
       </c>
       <c r="R25" t="n">
         <v>36.76336727918306</v>
@@ -32940,10 +32940,10 @@
         <v>1.822753398232705</v>
       </c>
       <c r="H26" t="n">
-        <v>18.66727323965069</v>
+        <v>18.6672732396507</v>
       </c>
       <c r="I26" t="n">
-        <v>70.27170038536642</v>
+        <v>70.27170038536643</v>
       </c>
       <c r="J26" t="n">
         <v>154.7039162332532</v>
@@ -32967,19 +32967,19 @@
         <v>262.114217107611</v>
       </c>
       <c r="Q26" t="n">
-        <v>196.8368610334021</v>
+        <v>196.8368610334022</v>
       </c>
       <c r="R26" t="n">
-        <v>114.4985331517352</v>
+        <v>114.4985331517353</v>
       </c>
       <c r="S26" t="n">
-        <v>41.5359930622278</v>
+        <v>41.53599306222781</v>
       </c>
       <c r="T26" t="n">
-        <v>7.979103000763669</v>
+        <v>7.97910300076367</v>
       </c>
       <c r="U26" t="n">
-        <v>0.1458202718586163</v>
+        <v>0.1458202718586164</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,16 +33016,16 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.9752590469883767</v>
+        <v>0.9752590469883768</v>
       </c>
       <c r="H27" t="n">
-        <v>9.418949216966693</v>
+        <v>9.418949216966695</v>
       </c>
       <c r="I27" t="n">
         <v>33.5779978897314</v>
       </c>
       <c r="J27" t="n">
-        <v>92.14059268059924</v>
+        <v>92.14059268059926</v>
       </c>
       <c r="K27" t="n">
         <v>157.4829488288205</v>
@@ -33049,13 +33049,13 @@
         <v>124.4909618576742</v>
       </c>
       <c r="R27" t="n">
-        <v>60.55160995248889</v>
+        <v>60.5516099524889</v>
       </c>
       <c r="S27" t="n">
         <v>18.11500905261304</v>
       </c>
       <c r="T27" t="n">
-        <v>3.930978351676833</v>
+        <v>3.930978351676834</v>
       </c>
       <c r="U27" t="n">
         <v>0.06416177940713008</v>
@@ -33095,19 +33095,19 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.8176244239203675</v>
+        <v>0.8176244239203676</v>
       </c>
       <c r="H28" t="n">
-        <v>7.269424423582909</v>
+        <v>7.26942442358291</v>
       </c>
       <c r="I28" t="n">
         <v>24.58819631207797</v>
       </c>
       <c r="J28" t="n">
-        <v>57.80604677116998</v>
+        <v>57.80604677116999</v>
       </c>
       <c r="K28" t="n">
-        <v>94.99309216092995</v>
+        <v>94.99309216092996</v>
       </c>
       <c r="L28" t="n">
         <v>121.5584529890336</v>
@@ -33122,10 +33122,10 @@
         <v>115.5674958464898</v>
       </c>
       <c r="P28" t="n">
-        <v>98.88795759851423</v>
+        <v>98.88795759851425</v>
       </c>
       <c r="Q28" t="n">
-        <v>68.46489607936823</v>
+        <v>68.46489607936824</v>
       </c>
       <c r="R28" t="n">
         <v>36.76336727918306</v>
@@ -33177,10 +33177,10 @@
         <v>1.822753398232705</v>
       </c>
       <c r="H29" t="n">
-        <v>18.66727323965069</v>
+        <v>18.6672732396507</v>
       </c>
       <c r="I29" t="n">
-        <v>70.27170038536642</v>
+        <v>70.27170038536643</v>
       </c>
       <c r="J29" t="n">
         <v>154.7039162332532</v>
@@ -33204,19 +33204,19 @@
         <v>262.114217107611</v>
       </c>
       <c r="Q29" t="n">
-        <v>196.8368610334021</v>
+        <v>196.8368610334022</v>
       </c>
       <c r="R29" t="n">
-        <v>114.4985331517352</v>
+        <v>114.4985331517353</v>
       </c>
       <c r="S29" t="n">
-        <v>41.5359930622278</v>
+        <v>41.53599306222781</v>
       </c>
       <c r="T29" t="n">
-        <v>7.979103000763669</v>
+        <v>7.97910300076367</v>
       </c>
       <c r="U29" t="n">
-        <v>0.1458202718586163</v>
+        <v>0.1458202718586164</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,16 +33253,16 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.9752590469883767</v>
+        <v>0.9752590469883768</v>
       </c>
       <c r="H30" t="n">
-        <v>9.418949216966693</v>
+        <v>9.418949216966695</v>
       </c>
       <c r="I30" t="n">
         <v>33.5779978897314</v>
       </c>
       <c r="J30" t="n">
-        <v>92.14059268059924</v>
+        <v>92.14059268059926</v>
       </c>
       <c r="K30" t="n">
         <v>157.4829488288205</v>
@@ -33286,13 +33286,13 @@
         <v>124.4909618576742</v>
       </c>
       <c r="R30" t="n">
-        <v>60.55160995248889</v>
+        <v>60.5516099524889</v>
       </c>
       <c r="S30" t="n">
         <v>18.11500905261304</v>
       </c>
       <c r="T30" t="n">
-        <v>3.930978351676833</v>
+        <v>3.930978351676834</v>
       </c>
       <c r="U30" t="n">
         <v>0.06416177940713008</v>
@@ -33332,19 +33332,19 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.8176244239203675</v>
+        <v>0.8176244239203676</v>
       </c>
       <c r="H31" t="n">
-        <v>7.269424423582909</v>
+        <v>7.26942442358291</v>
       </c>
       <c r="I31" t="n">
         <v>24.58819631207797</v>
       </c>
       <c r="J31" t="n">
-        <v>57.80604677116998</v>
+        <v>57.80604677116999</v>
       </c>
       <c r="K31" t="n">
-        <v>94.99309216092995</v>
+        <v>94.99309216092996</v>
       </c>
       <c r="L31" t="n">
         <v>121.5584529890336</v>
@@ -33359,10 +33359,10 @@
         <v>115.5674958464898</v>
       </c>
       <c r="P31" t="n">
-        <v>98.88795759851423</v>
+        <v>98.88795759851425</v>
       </c>
       <c r="Q31" t="n">
-        <v>68.46489607936823</v>
+        <v>68.46489607936824</v>
       </c>
       <c r="R31" t="n">
         <v>36.76336727918306</v>
@@ -33414,10 +33414,10 @@
         <v>1.822753398232705</v>
       </c>
       <c r="H32" t="n">
-        <v>18.66727323965069</v>
+        <v>18.6672732396507</v>
       </c>
       <c r="I32" t="n">
-        <v>70.27170038536642</v>
+        <v>70.27170038536643</v>
       </c>
       <c r="J32" t="n">
         <v>154.7039162332532</v>
@@ -33441,19 +33441,19 @@
         <v>262.114217107611</v>
       </c>
       <c r="Q32" t="n">
-        <v>196.8368610334021</v>
+        <v>196.8368610334022</v>
       </c>
       <c r="R32" t="n">
-        <v>114.4985331517352</v>
+        <v>114.4985331517353</v>
       </c>
       <c r="S32" t="n">
-        <v>41.5359930622278</v>
+        <v>41.53599306222781</v>
       </c>
       <c r="T32" t="n">
-        <v>7.979103000763669</v>
+        <v>7.97910300076367</v>
       </c>
       <c r="U32" t="n">
-        <v>0.1458202718586163</v>
+        <v>0.1458202718586164</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,16 +33490,16 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.9752590469883767</v>
+        <v>0.9752590469883768</v>
       </c>
       <c r="H33" t="n">
-        <v>9.418949216966693</v>
+        <v>9.418949216966695</v>
       </c>
       <c r="I33" t="n">
         <v>33.5779978897314</v>
       </c>
       <c r="J33" t="n">
-        <v>92.14059268059924</v>
+        <v>92.14059268059926</v>
       </c>
       <c r="K33" t="n">
         <v>157.4829488288205</v>
@@ -33523,13 +33523,13 @@
         <v>124.4909618576742</v>
       </c>
       <c r="R33" t="n">
-        <v>60.55160995248889</v>
+        <v>60.5516099524889</v>
       </c>
       <c r="S33" t="n">
         <v>18.11500905261304</v>
       </c>
       <c r="T33" t="n">
-        <v>3.930978351676833</v>
+        <v>3.930978351676834</v>
       </c>
       <c r="U33" t="n">
         <v>0.06416177940713008</v>
@@ -33569,19 +33569,19 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.8176244239203675</v>
+        <v>0.8176244239203676</v>
       </c>
       <c r="H34" t="n">
-        <v>7.269424423582909</v>
+        <v>7.26942442358291</v>
       </c>
       <c r="I34" t="n">
         <v>24.58819631207797</v>
       </c>
       <c r="J34" t="n">
-        <v>57.80604677116998</v>
+        <v>57.80604677116999</v>
       </c>
       <c r="K34" t="n">
-        <v>94.99309216092995</v>
+        <v>94.99309216092996</v>
       </c>
       <c r="L34" t="n">
         <v>121.5584529890336</v>
@@ -33596,10 +33596,10 @@
         <v>115.5674958464898</v>
       </c>
       <c r="P34" t="n">
-        <v>98.88795759851423</v>
+        <v>98.88795759851425</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.46489607936823</v>
+        <v>68.46489607936824</v>
       </c>
       <c r="R34" t="n">
         <v>36.76336727918306</v>
@@ -33651,10 +33651,10 @@
         <v>1.822753398232705</v>
       </c>
       <c r="H35" t="n">
-        <v>18.66727323965069</v>
+        <v>18.6672732396507</v>
       </c>
       <c r="I35" t="n">
-        <v>70.27170038536642</v>
+        <v>70.27170038536643</v>
       </c>
       <c r="J35" t="n">
         <v>154.7039162332532</v>
@@ -33678,19 +33678,19 @@
         <v>262.114217107611</v>
       </c>
       <c r="Q35" t="n">
-        <v>196.8368610334021</v>
+        <v>196.8368610334022</v>
       </c>
       <c r="R35" t="n">
-        <v>114.4985331517352</v>
+        <v>114.4985331517353</v>
       </c>
       <c r="S35" t="n">
-        <v>41.5359930622278</v>
+        <v>41.53599306222781</v>
       </c>
       <c r="T35" t="n">
-        <v>7.979103000763669</v>
+        <v>7.97910300076367</v>
       </c>
       <c r="U35" t="n">
-        <v>0.1458202718586163</v>
+        <v>0.1458202718586164</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,16 +33727,16 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.9752590469883767</v>
+        <v>0.9752590469883768</v>
       </c>
       <c r="H36" t="n">
-        <v>9.418949216966693</v>
+        <v>9.418949216966695</v>
       </c>
       <c r="I36" t="n">
         <v>33.5779978897314</v>
       </c>
       <c r="J36" t="n">
-        <v>92.14059268059924</v>
+        <v>92.14059268059926</v>
       </c>
       <c r="K36" t="n">
         <v>157.4829488288205</v>
@@ -33760,13 +33760,13 @@
         <v>124.4909618576742</v>
       </c>
       <c r="R36" t="n">
-        <v>60.55160995248889</v>
+        <v>60.5516099524889</v>
       </c>
       <c r="S36" t="n">
         <v>18.11500905261304</v>
       </c>
       <c r="T36" t="n">
-        <v>3.930978351676833</v>
+        <v>3.930978351676834</v>
       </c>
       <c r="U36" t="n">
         <v>0.06416177940713008</v>
@@ -33806,19 +33806,19 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.8176244239203675</v>
+        <v>0.8176244239203676</v>
       </c>
       <c r="H37" t="n">
-        <v>7.269424423582909</v>
+        <v>7.26942442358291</v>
       </c>
       <c r="I37" t="n">
         <v>24.58819631207797</v>
       </c>
       <c r="J37" t="n">
-        <v>57.80604677116998</v>
+        <v>57.80604677116999</v>
       </c>
       <c r="K37" t="n">
-        <v>94.99309216092995</v>
+        <v>94.99309216092996</v>
       </c>
       <c r="L37" t="n">
         <v>121.5584529890336</v>
@@ -33833,10 +33833,10 @@
         <v>115.5674958464898</v>
       </c>
       <c r="P37" t="n">
-        <v>98.88795759851423</v>
+        <v>98.88795759851425</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.46489607936823</v>
+        <v>68.46489607936824</v>
       </c>
       <c r="R37" t="n">
         <v>36.76336727918306</v>
@@ -33888,10 +33888,10 @@
         <v>1.822753398232705</v>
       </c>
       <c r="H38" t="n">
-        <v>18.66727323965069</v>
+        <v>18.6672732396507</v>
       </c>
       <c r="I38" t="n">
-        <v>70.27170038536642</v>
+        <v>70.27170038536643</v>
       </c>
       <c r="J38" t="n">
         <v>154.7039162332532</v>
@@ -33915,19 +33915,19 @@
         <v>262.114217107611</v>
       </c>
       <c r="Q38" t="n">
-        <v>196.8368610334021</v>
+        <v>196.8368610334022</v>
       </c>
       <c r="R38" t="n">
-        <v>114.4985331517352</v>
+        <v>114.4985331517353</v>
       </c>
       <c r="S38" t="n">
-        <v>41.5359930622278</v>
+        <v>41.53599306222781</v>
       </c>
       <c r="T38" t="n">
-        <v>7.979103000763669</v>
+        <v>7.97910300076367</v>
       </c>
       <c r="U38" t="n">
-        <v>0.1458202718586163</v>
+        <v>0.1458202718586164</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,16 +33964,16 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.9752590469883767</v>
+        <v>0.9752590469883768</v>
       </c>
       <c r="H39" t="n">
-        <v>9.418949216966693</v>
+        <v>9.418949216966695</v>
       </c>
       <c r="I39" t="n">
         <v>33.5779978897314</v>
       </c>
       <c r="J39" t="n">
-        <v>92.14059268059924</v>
+        <v>92.14059268059926</v>
       </c>
       <c r="K39" t="n">
         <v>157.4829488288205</v>
@@ -33997,13 +33997,13 @@
         <v>124.4909618576742</v>
       </c>
       <c r="R39" t="n">
-        <v>60.55160995248889</v>
+        <v>60.5516099524889</v>
       </c>
       <c r="S39" t="n">
         <v>18.11500905261304</v>
       </c>
       <c r="T39" t="n">
-        <v>3.930978351676833</v>
+        <v>3.930978351676834</v>
       </c>
       <c r="U39" t="n">
         <v>0.06416177940713008</v>
@@ -34043,19 +34043,19 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.8176244239203675</v>
+        <v>0.8176244239203676</v>
       </c>
       <c r="H40" t="n">
-        <v>7.269424423582909</v>
+        <v>7.26942442358291</v>
       </c>
       <c r="I40" t="n">
         <v>24.58819631207797</v>
       </c>
       <c r="J40" t="n">
-        <v>57.80604677116998</v>
+        <v>57.80604677116999</v>
       </c>
       <c r="K40" t="n">
-        <v>94.99309216092995</v>
+        <v>94.99309216092996</v>
       </c>
       <c r="L40" t="n">
         <v>121.5584529890336</v>
@@ -34070,10 +34070,10 @@
         <v>115.5674958464898</v>
       </c>
       <c r="P40" t="n">
-        <v>98.88795759851423</v>
+        <v>98.88795759851425</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.46489607936823</v>
+        <v>68.46489607936824</v>
       </c>
       <c r="R40" t="n">
         <v>36.76336727918306</v>
@@ -34125,10 +34125,10 @@
         <v>1.822753398232705</v>
       </c>
       <c r="H41" t="n">
-        <v>18.66727323965069</v>
+        <v>18.6672732396507</v>
       </c>
       <c r="I41" t="n">
-        <v>70.27170038536642</v>
+        <v>70.27170038536643</v>
       </c>
       <c r="J41" t="n">
         <v>154.7039162332532</v>
@@ -34152,19 +34152,19 @@
         <v>262.114217107611</v>
       </c>
       <c r="Q41" t="n">
-        <v>196.8368610334021</v>
+        <v>196.8368610334022</v>
       </c>
       <c r="R41" t="n">
-        <v>114.4985331517352</v>
+        <v>114.4985331517353</v>
       </c>
       <c r="S41" t="n">
-        <v>41.5359930622278</v>
+        <v>41.53599306222781</v>
       </c>
       <c r="T41" t="n">
-        <v>7.979103000763669</v>
+        <v>7.97910300076367</v>
       </c>
       <c r="U41" t="n">
-        <v>0.1458202718586163</v>
+        <v>0.1458202718586164</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,16 +34201,16 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.9752590469883767</v>
+        <v>0.9752590469883768</v>
       </c>
       <c r="H42" t="n">
-        <v>9.418949216966693</v>
+        <v>9.418949216966695</v>
       </c>
       <c r="I42" t="n">
         <v>33.5779978897314</v>
       </c>
       <c r="J42" t="n">
-        <v>92.14059268059924</v>
+        <v>92.14059268059926</v>
       </c>
       <c r="K42" t="n">
         <v>157.4829488288205</v>
@@ -34234,13 +34234,13 @@
         <v>124.4909618576742</v>
       </c>
       <c r="R42" t="n">
-        <v>60.55160995248889</v>
+        <v>60.5516099524889</v>
       </c>
       <c r="S42" t="n">
         <v>18.11500905261304</v>
       </c>
       <c r="T42" t="n">
-        <v>3.930978351676833</v>
+        <v>3.930978351676834</v>
       </c>
       <c r="U42" t="n">
         <v>0.06416177940713008</v>
@@ -34280,19 +34280,19 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.8176244239203675</v>
+        <v>0.8176244239203676</v>
       </c>
       <c r="H43" t="n">
-        <v>7.269424423582909</v>
+        <v>7.26942442358291</v>
       </c>
       <c r="I43" t="n">
         <v>24.58819631207797</v>
       </c>
       <c r="J43" t="n">
-        <v>57.80604677116998</v>
+        <v>57.80604677116999</v>
       </c>
       <c r="K43" t="n">
-        <v>94.99309216092995</v>
+        <v>94.99309216092996</v>
       </c>
       <c r="L43" t="n">
         <v>121.5584529890336</v>
@@ -34307,10 +34307,10 @@
         <v>115.5674958464898</v>
       </c>
       <c r="P43" t="n">
-        <v>98.88795759851423</v>
+        <v>98.88795759851425</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.46489607936823</v>
+        <v>68.46489607936824</v>
       </c>
       <c r="R43" t="n">
         <v>36.76336727918306</v>
@@ -34362,10 +34362,10 @@
         <v>1.822753398232705</v>
       </c>
       <c r="H44" t="n">
-        <v>18.66727323965069</v>
+        <v>18.6672732396507</v>
       </c>
       <c r="I44" t="n">
-        <v>70.27170038536642</v>
+        <v>70.27170038536643</v>
       </c>
       <c r="J44" t="n">
         <v>154.7039162332532</v>
@@ -34389,19 +34389,19 @@
         <v>262.114217107611</v>
       </c>
       <c r="Q44" t="n">
-        <v>196.8368610334021</v>
+        <v>196.8368610334022</v>
       </c>
       <c r="R44" t="n">
-        <v>114.4985331517352</v>
+        <v>114.4985331517353</v>
       </c>
       <c r="S44" t="n">
-        <v>41.5359930622278</v>
+        <v>41.53599306222781</v>
       </c>
       <c r="T44" t="n">
-        <v>7.979103000763669</v>
+        <v>7.97910300076367</v>
       </c>
       <c r="U44" t="n">
-        <v>0.1458202718586163</v>
+        <v>0.1458202718586164</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,16 +34438,16 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.9752590469883767</v>
+        <v>0.9752590469883768</v>
       </c>
       <c r="H45" t="n">
-        <v>9.418949216966693</v>
+        <v>9.418949216966695</v>
       </c>
       <c r="I45" t="n">
         <v>33.5779978897314</v>
       </c>
       <c r="J45" t="n">
-        <v>92.14059268059924</v>
+        <v>92.14059268059926</v>
       </c>
       <c r="K45" t="n">
         <v>157.4829488288205</v>
@@ -34471,13 +34471,13 @@
         <v>124.4909618576742</v>
       </c>
       <c r="R45" t="n">
-        <v>60.55160995248889</v>
+        <v>60.5516099524889</v>
       </c>
       <c r="S45" t="n">
         <v>18.11500905261304</v>
       </c>
       <c r="T45" t="n">
-        <v>3.930978351676833</v>
+        <v>3.930978351676834</v>
       </c>
       <c r="U45" t="n">
         <v>0.06416177940713008</v>
@@ -34517,19 +34517,19 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.8176244239203675</v>
+        <v>0.8176244239203676</v>
       </c>
       <c r="H46" t="n">
-        <v>7.269424423582909</v>
+        <v>7.26942442358291</v>
       </c>
       <c r="I46" t="n">
         <v>24.58819631207797</v>
       </c>
       <c r="J46" t="n">
-        <v>57.80604677116998</v>
+        <v>57.80604677116999</v>
       </c>
       <c r="K46" t="n">
-        <v>94.99309216092995</v>
+        <v>94.99309216092996</v>
       </c>
       <c r="L46" t="n">
         <v>121.5584529890336</v>
@@ -34544,10 +34544,10 @@
         <v>115.5674958464898</v>
       </c>
       <c r="P46" t="n">
-        <v>98.88795759851423</v>
+        <v>98.88795759851425</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.46489607936823</v>
+        <v>68.46489607936824</v>
       </c>
       <c r="R46" t="n">
         <v>36.76336727918306</v>
@@ -35406,25 +35406,25 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>69.85907890623501</v>
+        <v>69.85907890623504</v>
       </c>
       <c r="J11" t="n">
         <v>154.7039162332532</v>
       </c>
       <c r="K11" t="n">
-        <v>231.8610675804436</v>
+        <v>231.8610675804437</v>
       </c>
       <c r="L11" t="n">
-        <v>287.6441568916078</v>
+        <v>287.644156891608</v>
       </c>
       <c r="M11" t="n">
-        <v>320.0595476374288</v>
+        <v>320.0595476374285</v>
       </c>
       <c r="N11" t="n">
-        <v>325.2384457301573</v>
+        <v>325.2384457301575</v>
       </c>
       <c r="O11" t="n">
-        <v>307.1134416264808</v>
+        <v>307.1134416264811</v>
       </c>
       <c r="P11" t="n">
         <v>262.114217107611</v>
@@ -35433,7 +35433,7 @@
         <v>196.8368610334021</v>
       </c>
       <c r="R11" t="n">
-        <v>114.498533151735</v>
+        <v>114.4985331517355</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,10 +35485,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>59.90494047605221</v>
+        <v>33.5779978897314</v>
       </c>
       <c r="J12" t="n">
-        <v>92.14059268059924</v>
+        <v>139.9893941956734</v>
       </c>
       <c r="K12" t="n">
         <v>157.4829488288205</v>
@@ -35497,13 +35497,13 @@
         <v>211.7552593033316</v>
       </c>
       <c r="M12" t="n">
-        <v>247.1083997566601</v>
+        <v>247.1083997566602</v>
       </c>
       <c r="N12" t="n">
         <v>253.6486238042271</v>
       </c>
       <c r="O12" t="n">
-        <v>232.0389364999055</v>
+        <v>232.0389364999057</v>
       </c>
       <c r="P12" t="n">
         <v>186.2317034551752</v>
@@ -35512,7 +35512,7 @@
         <v>124.4909618576742</v>
       </c>
       <c r="R12" t="n">
-        <v>82.07346888124266</v>
+        <v>60.55160995248889</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,31 +35567,31 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>57.80604677116998</v>
+        <v>57.80604677117001</v>
       </c>
       <c r="K13" t="n">
-        <v>372.5268846570265</v>
+        <v>94.99309216092999</v>
       </c>
       <c r="L13" t="n">
         <v>121.5584529890336</v>
       </c>
       <c r="M13" t="n">
-        <v>573.2729523569825</v>
+        <v>573.2729523569826</v>
       </c>
       <c r="N13" t="n">
-        <v>571.844899503342</v>
+        <v>179.0015589484105</v>
       </c>
       <c r="O13" t="n">
-        <v>115.5674958464899</v>
+        <v>539.4758283977842</v>
       </c>
       <c r="P13" t="n">
-        <v>203.4362217152875</v>
+        <v>449.9050222150211</v>
       </c>
       <c r="Q13" t="n">
-        <v>238.3565878615218</v>
+        <v>238.3565878615223</v>
       </c>
       <c r="R13" t="n">
-        <v>15.55972419750123</v>
+        <v>15.55972419750124</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>69.85907890623501</v>
+        <v>69.85907890623504</v>
       </c>
       <c r="J14" t="n">
-        <v>154.7039162332532</v>
+        <v>154.7039162332533</v>
       </c>
       <c r="K14" t="n">
-        <v>231.8610675804435</v>
+        <v>231.8610675804437</v>
       </c>
       <c r="L14" t="n">
-        <v>287.6441568916078</v>
+        <v>287.644156891608</v>
       </c>
       <c r="M14" t="n">
-        <v>320.0595476374285</v>
+        <v>320.0595476374286</v>
       </c>
       <c r="N14" t="n">
-        <v>325.2384457301573</v>
+        <v>325.2384457301575</v>
       </c>
       <c r="O14" t="n">
         <v>307.1134416264808</v>
       </c>
       <c r="P14" t="n">
-        <v>262.1142171076108</v>
+        <v>262.114217107611</v>
       </c>
       <c r="Q14" t="n">
-        <v>196.8368610334023</v>
+        <v>196.8368610334021</v>
       </c>
       <c r="R14" t="n">
-        <v>114.498533151735</v>
+        <v>114.4985331517355</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,28 +35722,28 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>59.9049404760522</v>
+        <v>59.90494047605223</v>
       </c>
       <c r="J15" t="n">
-        <v>92.14059268059923</v>
+        <v>92.14059268059927</v>
       </c>
       <c r="K15" t="n">
-        <v>157.4829488288204</v>
+        <v>157.4829488288205</v>
       </c>
       <c r="L15" t="n">
-        <v>211.7552593033315</v>
+        <v>211.7552593033316</v>
       </c>
       <c r="M15" t="n">
-        <v>268.6302586854141</v>
+        <v>247.1083997566602</v>
       </c>
       <c r="N15" t="n">
-        <v>253.648623804227</v>
+        <v>253.6486238042271</v>
       </c>
       <c r="O15" t="n">
-        <v>232.0389364999055</v>
+        <v>232.0389364999057</v>
       </c>
       <c r="P15" t="n">
-        <v>186.2317034551752</v>
+        <v>207.7535623839285</v>
       </c>
       <c r="Q15" t="n">
         <v>124.4909618576742</v>
@@ -35804,16 +35804,16 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>57.80604677116997</v>
+        <v>57.80604677117</v>
       </c>
       <c r="K16" t="n">
-        <v>94.99309216092993</v>
+        <v>94.99309216092998</v>
       </c>
       <c r="L16" t="n">
-        <v>543.992676997075</v>
+        <v>249.6238688327628</v>
       </c>
       <c r="M16" t="n">
-        <v>128.1663449241718</v>
+        <v>573.2729523569826</v>
       </c>
       <c r="N16" t="n">
         <v>571.844899503342</v>
@@ -35822,13 +35822,13 @@
         <v>539.4758283977842</v>
       </c>
       <c r="P16" t="n">
-        <v>249.6257568670121</v>
+        <v>98.88795759851428</v>
       </c>
       <c r="Q16" t="n">
         <v>68.46489607936837</v>
       </c>
       <c r="R16" t="n">
-        <v>15.55972419750122</v>
+        <v>15.55972419750124</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -35880,19 +35880,19 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>69.85907890623501</v>
+        <v>69.85907890623503</v>
       </c>
       <c r="J17" t="n">
-        <v>154.7039162332532</v>
+        <v>154.7039162332538</v>
       </c>
       <c r="K17" t="n">
-        <v>231.8610675804436</v>
+        <v>231.8610675804437</v>
       </c>
       <c r="L17" t="n">
-        <v>287.6441568916079</v>
+        <v>287.6441568916078</v>
       </c>
       <c r="M17" t="n">
-        <v>320.0595476374286</v>
+        <v>320.0595476374288</v>
       </c>
       <c r="N17" t="n">
         <v>325.2384457301573</v>
@@ -35959,13 +35959,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>33.5779978897314</v>
+        <v>59.9049404760522</v>
       </c>
       <c r="J18" t="n">
-        <v>92.14059268059923</v>
+        <v>113.6624516093528</v>
       </c>
       <c r="K18" t="n">
-        <v>157.4829488288204</v>
+        <v>157.4829488288205</v>
       </c>
       <c r="L18" t="n">
         <v>211.7552593033316</v>
@@ -35974,7 +35974,7 @@
         <v>247.1083997566602</v>
       </c>
       <c r="N18" t="n">
-        <v>253.6486238042269</v>
+        <v>253.6486238042271</v>
       </c>
       <c r="O18" t="n">
         <v>232.0389364999055</v>
@@ -35983,7 +35983,7 @@
         <v>186.2317034551752</v>
       </c>
       <c r="Q18" t="n">
-        <v>172.3397633727488</v>
+        <v>124.4909618576742</v>
       </c>
       <c r="R18" t="n">
         <v>60.55160995248889</v>
@@ -36041,16 +36041,16 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>145.2602742102507</v>
+        <v>57.80604677116998</v>
       </c>
       <c r="K19" t="n">
-        <v>372.5268846570265</v>
+        <v>94.99309216092996</v>
       </c>
       <c r="L19" t="n">
-        <v>121.5584529890335</v>
+        <v>543.992676997075</v>
       </c>
       <c r="M19" t="n">
-        <v>573.2729523569825</v>
+        <v>573.2729523569826</v>
       </c>
       <c r="N19" t="n">
         <v>125.1188357077415</v>
@@ -36059,10 +36059,10 @@
         <v>539.4758283977842</v>
       </c>
       <c r="P19" t="n">
-        <v>138.7997255205132</v>
+        <v>251.2452132298026</v>
       </c>
       <c r="Q19" t="n">
-        <v>238.3565878615218</v>
+        <v>68.46489607936837</v>
       </c>
       <c r="R19" t="n">
         <v>15.55972419750123</v>
@@ -36117,22 +36117,22 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>69.85907890623501</v>
+        <v>69.85907890623503</v>
       </c>
       <c r="J20" t="n">
         <v>154.7039162332532</v>
       </c>
       <c r="K20" t="n">
-        <v>231.8610675804436</v>
+        <v>231.8610675804437</v>
       </c>
       <c r="L20" t="n">
         <v>287.6441568916078</v>
       </c>
       <c r="M20" t="n">
-        <v>320.059547637429</v>
+        <v>320.0595476374286</v>
       </c>
       <c r="N20" t="n">
-        <v>325.2384457301573</v>
+        <v>325.2384457301575</v>
       </c>
       <c r="O20" t="n">
         <v>307.1134416264808</v>
@@ -36144,7 +36144,7 @@
         <v>196.8368610334021</v>
       </c>
       <c r="R20" t="n">
-        <v>114.498533151735</v>
+        <v>114.4985331517355</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,10 +36196,10 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>33.5779978897314</v>
+        <v>59.9049404760522</v>
       </c>
       <c r="J21" t="n">
-        <v>139.9893941956739</v>
+        <v>92.14059268059927</v>
       </c>
       <c r="K21" t="n">
         <v>157.4829488288205</v>
@@ -36208,13 +36208,13 @@
         <v>211.7552593033316</v>
       </c>
       <c r="M21" t="n">
-        <v>247.1083997566601</v>
+        <v>247.1083997566602</v>
       </c>
       <c r="N21" t="n">
-        <v>253.648623804227</v>
+        <v>253.6486238042271</v>
       </c>
       <c r="O21" t="n">
-        <v>232.0389364999055</v>
+        <v>232.0389364999057</v>
       </c>
       <c r="P21" t="n">
         <v>186.2317034551752</v>
@@ -36223,7 +36223,7 @@
         <v>124.4909618576742</v>
       </c>
       <c r="R21" t="n">
-        <v>60.55160995248889</v>
+        <v>82.07346888124221</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36281,7 +36281,7 @@
         <v>57.80604677116998</v>
       </c>
       <c r="K22" t="n">
-        <v>94.99309216092995</v>
+        <v>94.99309216092996</v>
       </c>
       <c r="L22" t="n">
         <v>121.5584529890336</v>
@@ -36290,7 +36290,7 @@
         <v>573.2729523569826</v>
       </c>
       <c r="N22" t="n">
-        <v>571.844899503342</v>
+        <v>571.8448995033419</v>
       </c>
       <c r="O22" t="n">
         <v>539.4758283977842</v>
@@ -36299,7 +36299,7 @@
         <v>98.88795759851405</v>
       </c>
       <c r="Q22" t="n">
-        <v>196.5303119230975</v>
+        <v>196.530311923098</v>
       </c>
       <c r="R22" t="n">
         <v>15.55972419750123</v>
@@ -36354,31 +36354,31 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>69.85907890623501</v>
+        <v>69.85907890623503</v>
       </c>
       <c r="J23" t="n">
-        <v>154.7039162332532</v>
+        <v>193.1594924849734</v>
       </c>
       <c r="K23" t="n">
-        <v>231.8610675804437</v>
+        <v>1074.639140265472</v>
       </c>
       <c r="L23" t="n">
-        <v>1146.545904713965</v>
+        <v>287.644156891608</v>
       </c>
       <c r="M23" t="n">
         <v>320.0595476374288</v>
       </c>
       <c r="N23" t="n">
-        <v>1146.545904713965</v>
+        <v>325.2384457301573</v>
       </c>
       <c r="O23" t="n">
-        <v>896.8335007186711</v>
+        <v>307.1134416264808</v>
       </c>
       <c r="P23" t="n">
-        <v>262.1142171076108</v>
+        <v>1098.790858353466</v>
       </c>
       <c r="Q23" t="n">
-        <v>196.8368610334019</v>
+        <v>748.8558367491542</v>
       </c>
       <c r="R23" t="n">
         <v>114.4985331517355</v>
@@ -36433,25 +36433,25 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>33.57799788973141</v>
+        <v>59.9049404760522</v>
       </c>
       <c r="J24" t="n">
-        <v>92.14059268059924</v>
+        <v>92.14059268059927</v>
       </c>
       <c r="K24" t="n">
         <v>157.4829488288205</v>
       </c>
       <c r="L24" t="n">
-        <v>211.7552593033315</v>
+        <v>211.7552593033316</v>
       </c>
       <c r="M24" t="n">
         <v>247.1083997566602</v>
       </c>
       <c r="N24" t="n">
-        <v>301.4974253193016</v>
+        <v>253.6486238042271</v>
       </c>
       <c r="O24" t="n">
-        <v>232.0389364999055</v>
+        <v>232.0389364999057</v>
       </c>
       <c r="P24" t="n">
         <v>186.2317034551752</v>
@@ -36460,7 +36460,7 @@
         <v>124.4909618576742</v>
       </c>
       <c r="R24" t="n">
-        <v>60.55160995248889</v>
+        <v>82.07346888124221</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36518,25 +36518,25 @@
         <v>145.2602742102507</v>
       </c>
       <c r="K25" t="n">
-        <v>94.99309216092996</v>
+        <v>372.5268846570265</v>
       </c>
       <c r="L25" t="n">
-        <v>543.992676997075</v>
+        <v>543.9926769970749</v>
       </c>
       <c r="M25" t="n">
-        <v>592.2914632887305</v>
+        <v>128.1663449241719</v>
       </c>
       <c r="N25" t="n">
-        <v>571.844899503342</v>
+        <v>531.6575859464372</v>
       </c>
       <c r="O25" t="n">
-        <v>539.4758283977844</v>
+        <v>539.4758283977842</v>
       </c>
       <c r="P25" t="n">
-        <v>393.0180745718076</v>
+        <v>449.9050222150208</v>
       </c>
       <c r="Q25" t="n">
-        <v>68.46489607936837</v>
+        <v>238.3565878615223</v>
       </c>
       <c r="R25" t="n">
         <v>15.55972419750123</v>
@@ -36591,16 +36591,16 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>69.85907890623501</v>
+        <v>69.85907890623503</v>
       </c>
       <c r="J26" t="n">
-        <v>594.355115680645</v>
+        <v>154.7039162332532</v>
       </c>
       <c r="K26" t="n">
-        <v>231.8610675804437</v>
+        <v>1074.639140265472</v>
       </c>
       <c r="L26" t="n">
-        <v>558.3639147112099</v>
+        <v>326.0997331433282</v>
       </c>
       <c r="M26" t="n">
         <v>320.0595476374288</v>
@@ -36618,7 +36618,7 @@
         <v>748.8558367491542</v>
       </c>
       <c r="R26" t="n">
-        <v>285.3612248214895</v>
+        <v>114.4985331517355</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,7 +36673,7 @@
         <v>59.9049404760522</v>
       </c>
       <c r="J27" t="n">
-        <v>92.14059268059924</v>
+        <v>92.14059268059927</v>
       </c>
       <c r="K27" t="n">
         <v>157.4829488288205</v>
@@ -36685,10 +36685,10 @@
         <v>247.1083997566602</v>
       </c>
       <c r="N27" t="n">
-        <v>253.6486238042269</v>
+        <v>253.6486238042271</v>
       </c>
       <c r="O27" t="n">
-        <v>253.5607954286593</v>
+        <v>232.0389364999057</v>
       </c>
       <c r="P27" t="n">
         <v>186.2317034551752</v>
@@ -36697,7 +36697,7 @@
         <v>124.4909618576742</v>
       </c>
       <c r="R27" t="n">
-        <v>60.55160995248889</v>
+        <v>82.07346888124221</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>145.2602742102507</v>
+        <v>57.80604677116999</v>
       </c>
       <c r="K28" t="n">
-        <v>372.5268846570265</v>
+        <v>125.560371956797</v>
       </c>
       <c r="L28" t="n">
         <v>543.992676997075</v>
       </c>
       <c r="M28" t="n">
-        <v>128.1663449241719</v>
+        <v>592.2914632887305</v>
       </c>
       <c r="N28" t="n">
-        <v>531.6575859464372</v>
+        <v>571.844899503342</v>
       </c>
       <c r="O28" t="n">
         <v>539.4758283977842</v>
       </c>
       <c r="P28" t="n">
-        <v>449.9050222150208</v>
+        <v>449.9050222150213</v>
       </c>
       <c r="Q28" t="n">
-        <v>238.3565878615223</v>
+        <v>68.46489607936837</v>
       </c>
       <c r="R28" t="n">
         <v>15.55972419750123</v>
@@ -36828,31 +36828,31 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>69.85907890623501</v>
+        <v>69.85907890623503</v>
       </c>
       <c r="J29" t="n">
-        <v>594.355115680645</v>
+        <v>154.7039162332532</v>
       </c>
       <c r="K29" t="n">
-        <v>401.3992119601155</v>
+        <v>1074.639140265472</v>
       </c>
       <c r="L29" t="n">
-        <v>287.6441568916077</v>
+        <v>326.0997331433282</v>
       </c>
       <c r="M29" t="n">
         <v>320.0595476374288</v>
       </c>
       <c r="N29" t="n">
-        <v>1146.545904713965</v>
+        <v>325.2384457301573</v>
       </c>
       <c r="O29" t="n">
-        <v>1146.545904713965</v>
+        <v>307.1134416264808</v>
       </c>
       <c r="P29" t="n">
-        <v>262.1142171076108</v>
+        <v>1098.790858353466</v>
       </c>
       <c r="Q29" t="n">
-        <v>196.8368610334019</v>
+        <v>748.8558367491542</v>
       </c>
       <c r="R29" t="n">
         <v>114.4985331517355</v>
@@ -36907,16 +36907,16 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>33.57799788973125</v>
+        <v>59.9049404760522</v>
       </c>
       <c r="J30" t="n">
-        <v>92.14059268059918</v>
+        <v>113.6624516093528</v>
       </c>
       <c r="K30" t="n">
-        <v>157.4829488288206</v>
+        <v>157.4829488288205</v>
       </c>
       <c r="L30" t="n">
-        <v>211.7552593033315</v>
+        <v>211.7552593033316</v>
       </c>
       <c r="M30" t="n">
         <v>247.1083997566602</v>
@@ -36931,10 +36931,10 @@
         <v>186.2317034551752</v>
       </c>
       <c r="Q30" t="n">
-        <v>172.3397633727473</v>
+        <v>124.4909618576742</v>
       </c>
       <c r="R30" t="n">
-        <v>60.55160995248843</v>
+        <v>60.55160995248889</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>145.2602742102507</v>
+        <v>57.80604677116999</v>
       </c>
       <c r="K31" t="n">
-        <v>372.5268846570265</v>
+        <v>94.99309216092996</v>
       </c>
       <c r="L31" t="n">
         <v>543.992676997075</v>
@@ -37001,16 +37001,16 @@
         <v>592.2914632887305</v>
       </c>
       <c r="N31" t="n">
-        <v>125.1188357077415</v>
+        <v>571.844899503342</v>
       </c>
       <c r="O31" t="n">
-        <v>539.4758283977842</v>
+        <v>539.4758283977844</v>
       </c>
       <c r="P31" t="n">
-        <v>449.9050222150213</v>
+        <v>449.9050222150208</v>
       </c>
       <c r="Q31" t="n">
-        <v>180.7702197356589</v>
+        <v>99.03217587523568</v>
       </c>
       <c r="R31" t="n">
         <v>15.55972419750123</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>69.85907890623501</v>
+        <v>69.85907890623503</v>
       </c>
       <c r="J32" t="n">
-        <v>154.7039162332532</v>
+        <v>193.1594924849734</v>
       </c>
       <c r="K32" t="n">
         <v>1074.639140265472</v>
       </c>
       <c r="L32" t="n">
-        <v>287.6441568916077</v>
+        <v>287.644156891608</v>
       </c>
       <c r="M32" t="n">
         <v>320.0595476374288</v>
       </c>
       <c r="N32" t="n">
-        <v>325.2384457301575</v>
+        <v>325.2384457301573</v>
       </c>
       <c r="O32" t="n">
-        <v>1146.545904713965</v>
+        <v>307.1134416264808</v>
       </c>
       <c r="P32" t="n">
-        <v>262.1142171076108</v>
+        <v>1098.790858353466</v>
       </c>
       <c r="Q32" t="n">
         <v>748.8558367491542</v>
       </c>
       <c r="R32" t="n">
-        <v>150.198287561826</v>
+        <v>114.4985331517355</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,22 +37147,22 @@
         <v>33.57799788973141</v>
       </c>
       <c r="J33" t="n">
-        <v>139.9893941956739</v>
+        <v>92.14059268059927</v>
       </c>
       <c r="K33" t="n">
-        <v>157.4829488288204</v>
+        <v>157.4829488288205</v>
       </c>
       <c r="L33" t="n">
         <v>211.7552593033316</v>
       </c>
       <c r="M33" t="n">
-        <v>247.1083997566601</v>
+        <v>247.1083997566602</v>
       </c>
       <c r="N33" t="n">
         <v>253.648623804227</v>
       </c>
       <c r="O33" t="n">
-        <v>232.0389364999055</v>
+        <v>232.0389364999057</v>
       </c>
       <c r="P33" t="n">
         <v>186.2317034551752</v>
@@ -37171,7 +37171,7 @@
         <v>124.4909618576742</v>
       </c>
       <c r="R33" t="n">
-        <v>60.55160995248889</v>
+        <v>108.4004114675631</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,13 +37226,13 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>57.80604677116999</v>
+        <v>145.2602742102507</v>
       </c>
       <c r="K34" t="n">
-        <v>372.5268846570266</v>
+        <v>219.2315173520697</v>
       </c>
       <c r="L34" t="n">
-        <v>297.0261642968455</v>
+        <v>543.992676997075</v>
       </c>
       <c r="M34" t="n">
         <v>592.2914632887305</v>
@@ -37241,13 +37241,13 @@
         <v>571.844899503342</v>
       </c>
       <c r="O34" t="n">
-        <v>539.4758283977842</v>
+        <v>539.475828397784</v>
       </c>
       <c r="P34" t="n">
-        <v>449.9050222150213</v>
+        <v>98.88795759851428</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.46489607936837</v>
+        <v>238.3565878615223</v>
       </c>
       <c r="R34" t="n">
         <v>15.55972419750123</v>
@@ -37302,31 +37302,31 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>69.85907890623501</v>
+        <v>69.85907890623503</v>
       </c>
       <c r="J35" t="n">
-        <v>154.7039162332532</v>
+        <v>154.7039162332535</v>
       </c>
       <c r="K35" t="n">
-        <v>231.8610675804436</v>
+        <v>231.8610675804437</v>
       </c>
       <c r="L35" t="n">
         <v>287.6441568916078</v>
       </c>
       <c r="M35" t="n">
-        <v>320.0595476374288</v>
+        <v>320.0595476374286</v>
       </c>
       <c r="N35" t="n">
-        <v>325.2384457301573</v>
+        <v>325.2384457301575</v>
       </c>
       <c r="O35" t="n">
-        <v>307.1134416264811</v>
+        <v>307.1134416264808</v>
       </c>
       <c r="P35" t="n">
         <v>262.114217107611</v>
       </c>
       <c r="Q35" t="n">
-        <v>196.8368610334021</v>
+        <v>196.8368610334023</v>
       </c>
       <c r="R35" t="n">
         <v>114.498533151735</v>
@@ -37381,25 +37381,25 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>33.5779978897314</v>
+        <v>59.9049404760522</v>
       </c>
       <c r="J36" t="n">
-        <v>92.14059268059923</v>
+        <v>92.14059268059927</v>
       </c>
       <c r="K36" t="n">
-        <v>205.3317503438952</v>
+        <v>157.4829488288205</v>
       </c>
       <c r="L36" t="n">
         <v>211.7552593033316</v>
       </c>
       <c r="M36" t="n">
-        <v>247.1083997566601</v>
+        <v>247.1083997566602</v>
       </c>
       <c r="N36" t="n">
-        <v>253.648623804227</v>
+        <v>253.6486238042271</v>
       </c>
       <c r="O36" t="n">
-        <v>232.0389364999055</v>
+        <v>232.0389364999057</v>
       </c>
       <c r="P36" t="n">
         <v>186.2317034551752</v>
@@ -37408,7 +37408,7 @@
         <v>124.4909618576742</v>
       </c>
       <c r="R36" t="n">
-        <v>60.55160995248889</v>
+        <v>82.07346888124221</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>145.2602742102507</v>
+        <v>57.80604677116998</v>
       </c>
       <c r="K37" t="n">
-        <v>372.5268846570265</v>
+        <v>94.99309216092996</v>
       </c>
       <c r="L37" t="n">
-        <v>121.5584529890335</v>
+        <v>543.992676997075</v>
       </c>
       <c r="M37" t="n">
-        <v>573.2729523569825</v>
+        <v>573.2729523569826</v>
       </c>
       <c r="N37" t="n">
-        <v>125.1188357077415</v>
+        <v>350.3673592738173</v>
       </c>
       <c r="O37" t="n">
-        <v>539.4758283977842</v>
+        <v>115.5674958464899</v>
       </c>
       <c r="P37" t="n">
-        <v>138.7997255205132</v>
+        <v>449.9050222150211</v>
       </c>
       <c r="Q37" t="n">
-        <v>238.3565878615218</v>
+        <v>68.46489607936837</v>
       </c>
       <c r="R37" t="n">
         <v>15.55972419750123</v>
@@ -37539,25 +37539,25 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>69.85907890623501</v>
+        <v>69.85907890623503</v>
       </c>
       <c r="J38" t="n">
         <v>154.7039162332532</v>
       </c>
       <c r="K38" t="n">
-        <v>231.8610675804436</v>
+        <v>231.8610675804437</v>
       </c>
       <c r="L38" t="n">
-        <v>287.6441568916078</v>
+        <v>287.6441568916077</v>
       </c>
       <c r="M38" t="n">
-        <v>320.0595476374288</v>
+        <v>320.0595476374285</v>
       </c>
       <c r="N38" t="n">
-        <v>325.2384457301573</v>
+        <v>325.2384457301575</v>
       </c>
       <c r="O38" t="n">
-        <v>307.1134416264811</v>
+        <v>307.1134416264808</v>
       </c>
       <c r="P38" t="n">
         <v>262.114217107611</v>
@@ -37566,7 +37566,7 @@
         <v>196.8368610334021</v>
       </c>
       <c r="R38" t="n">
-        <v>114.498533151735</v>
+        <v>114.4985331517355</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,10 +37618,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>33.5779978897314</v>
+        <v>59.90494047605221</v>
       </c>
       <c r="J39" t="n">
-        <v>139.9893941956739</v>
+        <v>92.14059268059927</v>
       </c>
       <c r="K39" t="n">
         <v>157.4829488288205</v>
@@ -37630,13 +37630,13 @@
         <v>211.7552593033316</v>
       </c>
       <c r="M39" t="n">
-        <v>247.1083997566601</v>
+        <v>247.1083997566602</v>
       </c>
       <c r="N39" t="n">
-        <v>253.648623804227</v>
+        <v>253.6486238042271</v>
       </c>
       <c r="O39" t="n">
-        <v>232.0389364999055</v>
+        <v>232.0389364999057</v>
       </c>
       <c r="P39" t="n">
         <v>186.2317034551752</v>
@@ -37645,7 +37645,7 @@
         <v>124.4909618576742</v>
       </c>
       <c r="R39" t="n">
-        <v>60.55160995248889</v>
+        <v>82.07346888124221</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>145.2602742102507</v>
+        <v>57.80604677117</v>
       </c>
       <c r="K40" t="n">
         <v>372.5268846570265</v>
       </c>
       <c r="L40" t="n">
-        <v>543.992676997075</v>
+        <v>512.9056829485705</v>
       </c>
       <c r="M40" t="n">
-        <v>128.1663449241719</v>
+        <v>128.1663449241718</v>
       </c>
       <c r="N40" t="n">
         <v>125.1188357077415</v>
       </c>
       <c r="O40" t="n">
-        <v>251.0429151280455</v>
+        <v>539.4758283977842</v>
       </c>
       <c r="P40" t="n">
         <v>449.9050222150211</v>
       </c>
       <c r="Q40" t="n">
-        <v>238.3565878615218</v>
+        <v>68.46489607936837</v>
       </c>
       <c r="R40" t="n">
         <v>15.55972419750123</v>
@@ -37776,13 +37776,13 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>69.85907890623501</v>
+        <v>69.85907890623503</v>
       </c>
       <c r="J41" t="n">
         <v>154.7039162332532</v>
       </c>
       <c r="K41" t="n">
-        <v>231.8610675804436</v>
+        <v>231.8610675804437</v>
       </c>
       <c r="L41" t="n">
         <v>287.6441568916078</v>
@@ -37794,13 +37794,13 @@
         <v>325.2384457301573</v>
       </c>
       <c r="O41" t="n">
-        <v>307.1134416264808</v>
+        <v>307.1134416264811</v>
       </c>
       <c r="P41" t="n">
         <v>262.114217107611</v>
       </c>
       <c r="Q41" t="n">
-        <v>196.8368610334021</v>
+        <v>196.8368610334023</v>
       </c>
       <c r="R41" t="n">
         <v>114.498533151735</v>
@@ -37858,10 +37858,10 @@
         <v>33.5779978897314</v>
       </c>
       <c r="J42" t="n">
-        <v>92.14059268059923</v>
+        <v>92.14059268059927</v>
       </c>
       <c r="K42" t="n">
-        <v>157.4829488288204</v>
+        <v>157.4829488288205</v>
       </c>
       <c r="L42" t="n">
         <v>211.7552593033316</v>
@@ -37870,10 +37870,10 @@
         <v>247.1083997566602</v>
       </c>
       <c r="N42" t="n">
-        <v>253.6486238042269</v>
+        <v>253.648623804227</v>
       </c>
       <c r="O42" t="n">
-        <v>232.0389364999055</v>
+        <v>232.0389364999057</v>
       </c>
       <c r="P42" t="n">
         <v>186.2317034551752</v>
@@ -37882,7 +37882,7 @@
         <v>124.4909618576742</v>
       </c>
       <c r="R42" t="n">
-        <v>108.4004114675636</v>
+        <v>108.4004114675631</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37943,22 +37943,22 @@
         <v>372.5268846570265</v>
       </c>
       <c r="L43" t="n">
-        <v>425.4514555094898</v>
+        <v>543.992676997075</v>
       </c>
       <c r="M43" t="n">
-        <v>128.1663449241718</v>
+        <v>263.6417642057274</v>
       </c>
       <c r="N43" t="n">
         <v>125.1188357077415</v>
       </c>
       <c r="O43" t="n">
-        <v>539.4758283977842</v>
+        <v>115.5674958464899</v>
       </c>
       <c r="P43" t="n">
         <v>449.9050222150211</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.46489607936837</v>
+        <v>238.3565878615223</v>
       </c>
       <c r="R43" t="n">
         <v>15.55972419750123</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>69.85907890623501</v>
+        <v>69.85907890623503</v>
       </c>
       <c r="J44" t="n">
-        <v>154.7039162332533</v>
+        <v>154.7039162332532</v>
       </c>
       <c r="K44" t="n">
-        <v>231.8610675804436</v>
+        <v>231.8610675804437</v>
       </c>
       <c r="L44" t="n">
-        <v>287.6441568916078</v>
+        <v>287.6441568916077</v>
       </c>
       <c r="M44" t="n">
         <v>320.0595476374285</v>
       </c>
       <c r="N44" t="n">
-        <v>325.2384457301573</v>
+        <v>325.2384457301575</v>
       </c>
       <c r="O44" t="n">
-        <v>307.1134416264811</v>
+        <v>307.1134416264808</v>
       </c>
       <c r="P44" t="n">
         <v>262.114217107611</v>
       </c>
       <c r="Q44" t="n">
-        <v>196.8368610334023</v>
+        <v>196.8368610334021</v>
       </c>
       <c r="R44" t="n">
-        <v>114.498533151735</v>
+        <v>114.4985331517355</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,10 +38092,10 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>59.90494047605221</v>
+        <v>59.9049404760522</v>
       </c>
       <c r="J45" t="n">
-        <v>92.14059268059924</v>
+        <v>113.6624516093528</v>
       </c>
       <c r="K45" t="n">
         <v>157.4829488288205</v>
@@ -38104,7 +38104,7 @@
         <v>211.7552593033316</v>
       </c>
       <c r="M45" t="n">
-        <v>247.1083997566601</v>
+        <v>247.1083997566602</v>
       </c>
       <c r="N45" t="n">
         <v>253.6486238042271</v>
@@ -38116,7 +38116,7 @@
         <v>186.2317034551752</v>
       </c>
       <c r="Q45" t="n">
-        <v>146.0128207864279</v>
+        <v>124.4909618576742</v>
       </c>
       <c r="R45" t="n">
         <v>60.55160995248889</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>145.2602742102507</v>
+        <v>57.80604677116998</v>
       </c>
       <c r="K46" t="n">
-        <v>372.5268846570265</v>
+        <v>94.99309216092996</v>
       </c>
       <c r="L46" t="n">
-        <v>121.5584529890335</v>
+        <v>121.5584529890336</v>
       </c>
       <c r="M46" t="n">
-        <v>239.3499244181684</v>
+        <v>573.2729523569826</v>
       </c>
       <c r="N46" t="n">
-        <v>571.844899503342</v>
+        <v>571.8448995033419</v>
       </c>
       <c r="O46" t="n">
-        <v>115.5674958464899</v>
+        <v>539.4758283977842</v>
       </c>
       <c r="P46" t="n">
-        <v>449.9050222150211</v>
+        <v>226.9533734422437</v>
       </c>
       <c r="Q46" t="n">
-        <v>238.3565878615218</v>
+        <v>68.46489607936837</v>
       </c>
       <c r="R46" t="n">
         <v>15.55972419750123</v>
